--- a/02_Proyecto/09. Programa Auditoria/PROGRAMA_AUDI_INTERNA_GRUPO_5_V2.xlsx
+++ b/02_Proyecto/09. Programa Auditoria/PROGRAMA_AUDI_INTERNA_GRUPO_5_V2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ordenador\Documents\GitHub\2563_G5_ACSW\02_Proyecto\09. Programa Auditoria\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D851A6AF-C409-4245-90C7-B5548DE624E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06954C24-845D-493D-BFE7-5909610EEB84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="2. PLAN DE AUDITORIA" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="Print_Area" localSheetId="0">'1. PROGRAMA'!$B$6:$AA$46</definedName>
+    <definedName name="Print_Area" localSheetId="0">'1. PROGRAMA'!$B$6:$AA$39</definedName>
   </definedNames>
   <calcPr calcId="179021"/>
   <extLst>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="148">
   <si>
     <t>Código: UPDI-PRG-V1-2024-040</t>
   </si>
@@ -240,10 +240,6 @@
     <t>x</t>
   </si>
   <si>
-    <t xml:space="preserve">Juntas del equipo auditor
-</t>
-  </si>
-  <si>
     <t>Informe de Cierre de Auditoría</t>
   </si>
   <si>
@@ -333,9 +329,6 @@
     <t>Clausula</t>
   </si>
   <si>
-    <t>Nicol Lara</t>
-  </si>
-  <si>
     <t>Kevin Guzmán</t>
   </si>
   <si>
@@ -346,15 +339,6 @@
   </si>
   <si>
     <t>Jerly Reinoso</t>
-  </si>
-  <si>
-    <t>Seguridad de la Plataforma: Se evaluará la seguridad del sitio web, identificando vulnerabilidades y garantizando la protección de datos del cliente.</t>
-  </si>
-  <si>
-    <t>Gestión de Inventarios: Se verificará la actualización en tiempo real del inventario y la integración con sistemas de pedidos y envíos.</t>
-  </si>
-  <si>
-    <t>Experiencia del Usuario (UX): Se evaluará la navegación, tiempos de carga y procesos de compra para garantizar una experiencia fluida y eficiente.</t>
   </si>
   <si>
     <t>RESPONSABILIDADES: Nicole Lara, Sebastian Monga, Kevin Guzmán</t>
@@ -418,33 +402,6 @@
     <t>Clausula no utilizada</t>
   </si>
   <si>
-    <t>2.1</t>
-  </si>
-  <si>
-    <t>2.2</t>
-  </si>
-  <si>
-    <t>2.3</t>
-  </si>
-  <si>
-    <t>2.4</t>
-  </si>
-  <si>
-    <t>2.5</t>
-  </si>
-  <si>
-    <t>2.6</t>
-  </si>
-  <si>
-    <t>2.7</t>
-  </si>
-  <si>
-    <t>2.8</t>
-  </si>
-  <si>
-    <t>2.9</t>
-  </si>
-  <si>
     <r>
       <t>Selección de Proveedores:</t>
     </r>
@@ -499,53 +456,6 @@
       </rPr>
       <t xml:space="preserve"> Se implementará un sistema de monitoreo para evaluar el desempeño de los proveedores, garantizando la calidad constante y el cumplimiento de acuerdos de nivel de servicio (SLA).</t>
     </r>
-  </si>
-  <si>
-    <t>Configurar herramientas para supervisar en tiempo real el desempeño de los proveedores, como tiempos de respuesta y cumplimiento de acuerdos de nivel de servicio (SLA).
-Implementar pruebas continuas en Cucumber para detectar cualquier falla en los procesos automatizados o incumplimiento en los acuerdos.
-Generar reportes mensuales basados en métricas como disponibilidad, calidad de servicio y cumplimiento de plazos de entrega.
-Revisar los resultados de las pruebas automatizadas para identificar áreas de mejora en la relación con los proveedores.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Validación del Desempeño de los Proveedores</t>
-  </si>
-  <si>
-    <t>Simular escenarios de alta demanda mediante pruebas diseñadas en Cucumber para evaluar la capacidad del proveedor de manejar grandes volúmenes de pedidos.
-Diseñar casos de prueba en Cucumber para medir la percepción del cliente final sobre los servicios proporcionados, como tiempos de entrega y calidad del producto.</t>
-  </si>
-  <si>
-    <t>Evaluación de la Seguridad de los Proveedores</t>
-  </si>
-  <si>
-    <t>Realizar pruebas en Cucumber para verificar que los sistemas de los proveedores cumplen con los estándares de seguridad (como cifrado en reposo y en tránsito).
-Simular intentos de acceso no autorizado y brechas de seguridad para evaluar las medidas implementadas por el proveedor.
-Validar la existencia y efectividad de políticas de manejo de datos sensibles, prevención de fraudes y protección ante ataques cibernéticos.
-Diseñar casos de prueba en Cucumber que cubran escenarios críticos relacionados con la exposición de datos.</t>
-  </si>
-  <si>
-    <t>Validación de Acuerdos de Nivel de Servicio</t>
-  </si>
-  <si>
-    <t>Evaluar los acuerdos de nivel de servicio con los proveedores para asegurarse de que incluyen tiempos de respuesta, disponibilidad y resolución de incidentes.
-Diseñar pruebas en Cucumber para verificar el cumplimiento de estos SLA mediante la simulación de solicitudes en tiempo real.
-Crear casos de prueba automatizados en Cucumber que simulen errores comunes (por ejemplo, fallas en la entrega o demoras) y medir la rapidez con la que el proveedor responde y soluciona dichos problemas.</t>
-  </si>
-  <si>
-    <t>Análisis de Escalabilidad del Proveedor</t>
-  </si>
-  <si>
-    <t>Usar Cucumber para realizar pruebas de estrés simulando escenarios de escalabilidad, como un aumento significativo en los volúmenes de pedidos.
-Verificar si los sistemas del proveedor pueden adaptarse al crecimiento proyectado del negocio sin comprometer la calidad del servicio.
-Implementar pruebas que simulen fallos del sistema, como interrupciones en la conectividad o caídas de servidores, evaluando cómo el proveedor mantiene la continuidad del servicio.
-Validar que el proveedor puede mantener costos competitivos a medida que aumentan los volúmenes de transacciones o las demandas de servicio.</t>
-  </si>
-  <si>
-    <t>Evaluación y Retroalimentación Continua</t>
-  </si>
-  <si>
-    <t>Análisis de los resultados de pruebas automatizadas para identificar problemas recurrentes o áreas de mejora en los servicios del proveedor.
-Realización de reuniones periódicas con proveedores para discutir métricas de desempeño, implementar ajustes y garantizar la mejora continua de los procesos.
-Capacitación y actualización del equipo encargado para asegurar que las herramientas y metodologías de prueba (como Cucumber) sigan alineadas con los estándares actuales.</t>
   </si>
   <si>
     <t>Observación</t>
@@ -757,46 +667,110 @@
     <t>Reunion de Aperuta</t>
   </si>
   <si>
-    <t>Notificar a la organización auditada que la auditoría tiene un programa y solicitar la información y los documentos necesarios para su preparación y desarrollo.
-Puntos a tratar:
-1. Lista de Asistencia (Nombre - Posición o Puesto - Fecha de la junta).
-2. Descripción del Alcance y Propósito de la Auditoría.
-   2.1. Presentación del Equipo Auditor.
-   2.2. Revisión de los Métodos y Reglas de la Auditoría.
-   2.3. Revisión de la Agenda de la Auditoría.
-   2.4. Verificación de la situación del Sistema de Calidad.
-   2.5. Verificación de la Situación de las Actividades.
-   2.6. Establecimiento de Líneas de Comunicación.
-   2.7. Establecimiento de un Área para las Juntas del Equipo.
-   2.8. Respuestas a Preguntas.</t>
-  </si>
-  <si>
-    <t>Obtención de la Información</t>
-  </si>
-  <si>
-    <t>1. Ejecución de pruebas de auditoría: Con los procedimientos de auditoría previamente definidos, se realizan pruebas en las áreas consideradas de mayor riesgo. Esto puede incluir la revisión de registros, la comparación de cifras y otras técnicas de prueba para evaluar la validez y precisión de la información.
-2. Identificación de hallazgos: Tras completar las pruebas, es esencial analizar y evaluar los resultados obtenidos. Se deben identificar los hallazgos relevantes y documentarlos de manera clara y concisa.</t>
-  </si>
-  <si>
-    <t>Juntas del equipo auditor</t>
-  </si>
-  <si>
-    <t>Permiten al líder del equipo auditor dar seguimiento al progreso durante la auditoría.
-Actividades:
- • Determinar el estado de avance.
- • Asignar tareas al equipo para el día.
- • Asistir en la identificación sistemática de problemas.</t>
-  </si>
-  <si>
     <t>Administración del equipo auditor</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">La auditoría tiene un programa y solicitar la información y los documentos necesarios para su preparación y desarrollo.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Puntos a tratar:</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+2.1 Puntos dudosos sobre la auditoría.
+2,2 Definición de la forma de actuación.
+2.3 Establecimiento de los canales de comunicación.
+2.4 Definición de la fecha y hora de reunión final.
+2.5 Confirmación de la disponibilidad de los medios que precise el equipo auditor.</t>
+    </r>
+  </si>
+  <si>
+    <t>Realización de la auditoria</t>
+  </si>
+  <si>
+    <t>3.1 Obtener evidencias objetivas por medio de informes, examen de documentos, observación de actividades: Esto puede incluir la revisión de registros, la comparación de cifras y otras técnicas de prueba para evaluar la validez y precisión de la información.
+3.2. Informar sobre las No Conformidades u Oportunidades de Mejora que requieran acción de mejora
+inmediata: Con los procedimientos de auditoría previamente definidos, se realizan pruebas en las áreas consideradas de mayor riesgo.
+3.3 Tras completar las pruebas, es esencial analizar y evaluar los resultados obtenidos. Se deben identificar los hallazgos relevantes y documentarlos de manera clara y concisa.
+3.4 Tomar nota de todas las No Conformidades u Oportunidades de Mejora, con claridad y precisión
+a fin de que en las conclusiones puedan presentarse con exactitud y suficiente detalle.
+3.5 Verificar No Conformidades u Oportunidades de Mejora abiertas en auditorías anteriores y anotar las otras observaciones que se consideren significativas.</t>
+  </si>
+  <si>
+    <t>Reunión final</t>
+  </si>
+  <si>
+    <t>al término de la etapa de realización, se efectuará una reunión final con el fin de comunicar las conclusiones iniciales a los auditados.
+Actividades:
+4.1 Determinar el estado de avance.
+4.2 Temas pendientes de completar en función de las comprobaciones realizadas.
+4.3 Revisar y aclarar todas las No Conformidades u Oportunidades de Mejora y observaciones detectadas.
+4.4 Comunicación de conclusiones y en su caso, discusión de las mismas.</t>
+  </si>
+  <si>
     <t>Las responsabilidades del líder del equipo auditor incluyen:
- • Determinar si son necesarios cambios en el alcance de la auditoría.
- • Decidir si las investigaciones de la auditoría deben extenderse a otras áreas más allá del alcance definido.
- • Redirigir los recursos del equipo auditor para adaptarse a las condiciones cambiantes.
- • Dar seguimiento al programa de la auditoría.
- • Mantener informadas a las organizaciones auditora y auditada sobre cualquier cambio en el alcance o el programa.</t>
+5.1 Determinar si son necesarios cambios en el alcance de la auditoría.
+5.2 Decidir si las investigaciones de la auditoría deben extenderse a otras áreas más allá del alcance definido.
+5.3 Redirigir los recursos del equipo auditor para adaptarse a las condiciones cambiantes.
+5.4 Dar seguimiento al programa de la auditoría.
+5.5 Mantener informadas a las organizaciones auditora y auditada sobre cualquier cambio en el alcance o el programa.</t>
+  </si>
+  <si>
+    <t>Resume las evaluaciones de las áreas auditadas por parte del equipo auditor, y presenta verbalmente los resultados de la auditoría
+ La junta de cierre debe incluir lo siguiente:
+ • Lista de asistentes.
+ • Introducción del equipo auditor par para información de quién no asistió a lajunta de apertura.
+ • Descripción del alcance y propósito de la auditoría.
+ • Evaluación completa del área auditada.
+ • Mejoramientos y buenas prácticas.
+ • Descripción de problemas observados con su significancia e impacto potencial.
+ • Recomendaciones para mejoramiento y áreas de posible interés en el futuro.</t>
+  </si>
+  <si>
+    <t>El reporte de la auditoría debe tener los siguientes puntos:
+ • Presenta una evaluación total del área auditada.
+ • Centra la atención sobre áreas problema y promueve las acciones correctivas, las cuales deben dirigirse hacia causas raíz.
+ • Indica la profundidad y adecuación de las investigaciones.
+ • Proporciona evidencia objetiva de los atributos revisados y debe incluir información suficiente para apoyar por sí misma su conclusión.
+ • Identificación de los miembros del equipo auditor.
+ • Fechas de la auditoría.
+ • Fecha de emisión del reporte.
+ • Una descripción del alcance y propósito de la auditoría.
+ • Identificación de documentos revisados y actividades observadas; esto puede estar en forma de matriz o lista.
+ • Recomendaciones de mejoramiento para prevenir futuras no conformidades.
+ • Detalle suficiente para apoyar conclusiones.</t>
   </si>
 </sst>
 </file>
@@ -1151,7 +1125,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="56">
+  <borders count="53">
     <border>
       <left/>
       <right/>
@@ -1718,43 +1692,6 @@
       </left>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
@@ -1793,7 +1730,7 @@
     <xf numFmtId="0" fontId="34" fillId="0" borderId="27"/>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="27"/>
   </cellStyleXfs>
-  <cellXfs count="189">
+  <cellXfs count="186">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2015,86 +1952,13 @@
     <xf numFmtId="0" fontId="42" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2106,32 +1970,96 @@
     <xf numFmtId="0" fontId="16" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
-    <xf numFmtId="9" fontId="28" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="39" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="39" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="39" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="8" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="8" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="8" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="8" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="8" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="8" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="39" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="8" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="8" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2160,76 +2088,16 @@
     <xf numFmtId="0" fontId="14" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="8" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="8" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="8" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="8" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="8" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="8" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="8" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="8" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="39" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="39" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="39" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="39" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2256,38 +2124,98 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
+    <xf numFmtId="9" fontId="28" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2547,10 +2475,10 @@
     <tabColor rgb="FF92D050"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AU998"/>
+  <dimension ref="A1:AU995"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A15" zoomScale="58" zoomScaleNormal="25" zoomScaleSheetLayoutView="25" workbookViewId="0">
-      <selection activeCell="W24" sqref="W24:Z24"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="58" zoomScaleNormal="25" zoomScaleSheetLayoutView="25" workbookViewId="0">
+      <selection activeCell="W30" sqref="W30:Z30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
@@ -2576,34 +2504,34 @@
     </row>
     <row r="2" spans="1:47" ht="42.75" customHeight="1">
       <c r="A2" s="2"/>
-      <c r="B2" s="102"/>
-      <c r="C2" s="93"/>
-      <c r="D2" s="93"/>
-      <c r="E2" s="93"/>
-      <c r="F2" s="96"/>
-      <c r="G2" s="105"/>
-      <c r="H2" s="106"/>
-      <c r="I2" s="106"/>
-      <c r="J2" s="106"/>
-      <c r="K2" s="106"/>
-      <c r="L2" s="106"/>
-      <c r="M2" s="106"/>
-      <c r="N2" s="106"/>
-      <c r="O2" s="106"/>
-      <c r="P2" s="106"/>
-      <c r="Q2" s="106"/>
-      <c r="R2" s="106"/>
-      <c r="S2" s="106"/>
-      <c r="T2" s="106"/>
-      <c r="U2" s="106"/>
-      <c r="V2" s="106"/>
-      <c r="W2" s="106"/>
-      <c r="X2" s="107"/>
-      <c r="Y2" s="108" t="s">
-        <v>53</v>
+      <c r="B2" s="163"/>
+      <c r="C2" s="164"/>
+      <c r="D2" s="164"/>
+      <c r="E2" s="164"/>
+      <c r="F2" s="165"/>
+      <c r="G2" s="169"/>
+      <c r="H2" s="158"/>
+      <c r="I2" s="158"/>
+      <c r="J2" s="158"/>
+      <c r="K2" s="158"/>
+      <c r="L2" s="158"/>
+      <c r="M2" s="158"/>
+      <c r="N2" s="158"/>
+      <c r="O2" s="158"/>
+      <c r="P2" s="158"/>
+      <c r="Q2" s="158"/>
+      <c r="R2" s="158"/>
+      <c r="S2" s="158"/>
+      <c r="T2" s="158"/>
+      <c r="U2" s="158"/>
+      <c r="V2" s="158"/>
+      <c r="W2" s="158"/>
+      <c r="X2" s="159"/>
+      <c r="Y2" s="161" t="s">
+        <v>48</v>
       </c>
-      <c r="Z2" s="106"/>
-      <c r="AA2" s="107"/>
+      <c r="Z2" s="158"/>
+      <c r="AA2" s="159"/>
       <c r="AB2" s="2"/>
       <c r="AC2" s="2"/>
       <c r="AD2" s="2"/>
@@ -2627,34 +2555,34 @@
     </row>
     <row r="3" spans="1:47" ht="48.75" customHeight="1">
       <c r="A3" s="2"/>
-      <c r="B3" s="103"/>
-      <c r="C3" s="95"/>
-      <c r="D3" s="95"/>
-      <c r="E3" s="95"/>
-      <c r="F3" s="104"/>
-      <c r="G3" s="109"/>
-      <c r="H3" s="106"/>
-      <c r="I3" s="106"/>
-      <c r="J3" s="106"/>
-      <c r="K3" s="106"/>
-      <c r="L3" s="106"/>
-      <c r="M3" s="106"/>
-      <c r="N3" s="106"/>
-      <c r="O3" s="106"/>
-      <c r="P3" s="106"/>
-      <c r="Q3" s="106"/>
-      <c r="R3" s="106"/>
-      <c r="S3" s="106"/>
-      <c r="T3" s="106"/>
-      <c r="U3" s="106"/>
-      <c r="V3" s="106"/>
-      <c r="W3" s="106"/>
-      <c r="X3" s="107"/>
-      <c r="Y3" s="108" t="s">
-        <v>54</v>
+      <c r="B3" s="166"/>
+      <c r="C3" s="167"/>
+      <c r="D3" s="167"/>
+      <c r="E3" s="167"/>
+      <c r="F3" s="168"/>
+      <c r="G3" s="170"/>
+      <c r="H3" s="158"/>
+      <c r="I3" s="158"/>
+      <c r="J3" s="158"/>
+      <c r="K3" s="158"/>
+      <c r="L3" s="158"/>
+      <c r="M3" s="158"/>
+      <c r="N3" s="158"/>
+      <c r="O3" s="158"/>
+      <c r="P3" s="158"/>
+      <c r="Q3" s="158"/>
+      <c r="R3" s="158"/>
+      <c r="S3" s="158"/>
+      <c r="T3" s="158"/>
+      <c r="U3" s="158"/>
+      <c r="V3" s="158"/>
+      <c r="W3" s="158"/>
+      <c r="X3" s="159"/>
+      <c r="Y3" s="161" t="s">
+        <v>49</v>
       </c>
-      <c r="Z3" s="106"/>
-      <c r="AA3" s="107"/>
+      <c r="Z3" s="158"/>
+      <c r="AA3" s="159"/>
       <c r="AB3" s="2"/>
       <c r="AC3" s="2"/>
       <c r="AD3" s="2"/>
@@ -2678,36 +2606,36 @@
     </row>
     <row r="4" spans="1:47" ht="21" customHeight="1">
       <c r="A4" s="2"/>
-      <c r="B4" s="110" t="s">
+      <c r="B4" s="157" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="106"/>
-      <c r="D4" s="106"/>
-      <c r="E4" s="106"/>
-      <c r="F4" s="107"/>
-      <c r="G4" s="111"/>
-      <c r="H4" s="106"/>
-      <c r="I4" s="106"/>
-      <c r="J4" s="106"/>
-      <c r="K4" s="106"/>
-      <c r="L4" s="106"/>
-      <c r="M4" s="106"/>
-      <c r="N4" s="106"/>
-      <c r="O4" s="106"/>
-      <c r="P4" s="106"/>
-      <c r="Q4" s="106"/>
-      <c r="R4" s="106"/>
-      <c r="S4" s="106"/>
-      <c r="T4" s="106"/>
-      <c r="U4" s="106"/>
-      <c r="V4" s="106"/>
-      <c r="W4" s="106"/>
-      <c r="X4" s="107"/>
-      <c r="Y4" s="108" t="s">
+      <c r="C4" s="158"/>
+      <c r="D4" s="158"/>
+      <c r="E4" s="158"/>
+      <c r="F4" s="159"/>
+      <c r="G4" s="160"/>
+      <c r="H4" s="158"/>
+      <c r="I4" s="158"/>
+      <c r="J4" s="158"/>
+      <c r="K4" s="158"/>
+      <c r="L4" s="158"/>
+      <c r="M4" s="158"/>
+      <c r="N4" s="158"/>
+      <c r="O4" s="158"/>
+      <c r="P4" s="158"/>
+      <c r="Q4" s="158"/>
+      <c r="R4" s="158"/>
+      <c r="S4" s="158"/>
+      <c r="T4" s="158"/>
+      <c r="U4" s="158"/>
+      <c r="V4" s="158"/>
+      <c r="W4" s="158"/>
+      <c r="X4" s="159"/>
+      <c r="Y4" s="161" t="s">
         <v>1</v>
       </c>
-      <c r="Z4" s="106"/>
-      <c r="AA4" s="107"/>
+      <c r="Z4" s="158"/>
+      <c r="AA4" s="159"/>
       <c r="AB4" s="2"/>
       <c r="AC4" s="2"/>
       <c r="AD4" s="2"/>
@@ -2779,34 +2707,34 @@
       <c r="AU5" s="2"/>
     </row>
     <row r="6" spans="1:47" ht="20.25" customHeight="1">
-      <c r="B6" s="112" t="s">
+      <c r="B6" s="162" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="98"/>
-      <c r="D6" s="98"/>
-      <c r="E6" s="98"/>
-      <c r="F6" s="98"/>
-      <c r="G6" s="98"/>
-      <c r="H6" s="98"/>
-      <c r="I6" s="98"/>
-      <c r="J6" s="98"/>
-      <c r="K6" s="98"/>
-      <c r="L6" s="98"/>
-      <c r="M6" s="98"/>
-      <c r="N6" s="98"/>
-      <c r="O6" s="98"/>
-      <c r="P6" s="98"/>
-      <c r="Q6" s="98"/>
-      <c r="R6" s="98"/>
-      <c r="S6" s="98"/>
-      <c r="T6" s="98"/>
-      <c r="U6" s="98"/>
-      <c r="V6" s="98"/>
-      <c r="W6" s="98"/>
-      <c r="X6" s="98"/>
-      <c r="Y6" s="98"/>
-      <c r="Z6" s="98"/>
-      <c r="AA6" s="98"/>
+      <c r="C6" s="123"/>
+      <c r="D6" s="123"/>
+      <c r="E6" s="123"/>
+      <c r="F6" s="123"/>
+      <c r="G6" s="123"/>
+      <c r="H6" s="123"/>
+      <c r="I6" s="123"/>
+      <c r="J6" s="123"/>
+      <c r="K6" s="123"/>
+      <c r="L6" s="123"/>
+      <c r="M6" s="123"/>
+      <c r="N6" s="123"/>
+      <c r="O6" s="123"/>
+      <c r="P6" s="123"/>
+      <c r="Q6" s="123"/>
+      <c r="R6" s="123"/>
+      <c r="S6" s="123"/>
+      <c r="T6" s="123"/>
+      <c r="U6" s="123"/>
+      <c r="V6" s="123"/>
+      <c r="W6" s="123"/>
+      <c r="X6" s="123"/>
+      <c r="Y6" s="123"/>
+      <c r="Z6" s="123"/>
+      <c r="AA6" s="123"/>
       <c r="AB6" s="6"/>
       <c r="AC6" s="6"/>
       <c r="AD6" s="6"/>
@@ -2823,34 +2751,34 @@
       <c r="AO6" s="7"/>
     </row>
     <row r="7" spans="1:47" ht="26.25" customHeight="1">
-      <c r="B7" s="113" t="s">
+      <c r="B7" s="122" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="98"/>
-      <c r="D7" s="98"/>
-      <c r="E7" s="98"/>
-      <c r="F7" s="98"/>
-      <c r="G7" s="98"/>
-      <c r="H7" s="98"/>
-      <c r="I7" s="98"/>
-      <c r="J7" s="98"/>
-      <c r="K7" s="98"/>
-      <c r="L7" s="98"/>
-      <c r="M7" s="98"/>
-      <c r="N7" s="98"/>
-      <c r="O7" s="98"/>
-      <c r="P7" s="98"/>
-      <c r="Q7" s="98"/>
-      <c r="R7" s="98"/>
-      <c r="S7" s="98"/>
-      <c r="T7" s="98"/>
-      <c r="U7" s="98"/>
-      <c r="V7" s="98"/>
-      <c r="W7" s="98"/>
-      <c r="X7" s="98"/>
-      <c r="Y7" s="98"/>
-      <c r="Z7" s="98"/>
-      <c r="AA7" s="98"/>
+      <c r="C7" s="123"/>
+      <c r="D7" s="123"/>
+      <c r="E7" s="123"/>
+      <c r="F7" s="123"/>
+      <c r="G7" s="123"/>
+      <c r="H7" s="123"/>
+      <c r="I7" s="123"/>
+      <c r="J7" s="123"/>
+      <c r="K7" s="123"/>
+      <c r="L7" s="123"/>
+      <c r="M7" s="123"/>
+      <c r="N7" s="123"/>
+      <c r="O7" s="123"/>
+      <c r="P7" s="123"/>
+      <c r="Q7" s="123"/>
+      <c r="R7" s="123"/>
+      <c r="S7" s="123"/>
+      <c r="T7" s="123"/>
+      <c r="U7" s="123"/>
+      <c r="V7" s="123"/>
+      <c r="W7" s="123"/>
+      <c r="X7" s="123"/>
+      <c r="Y7" s="123"/>
+      <c r="Z7" s="123"/>
+      <c r="AA7" s="123"/>
       <c r="AB7" s="6"/>
       <c r="AC7" s="6"/>
       <c r="AD7" s="6"/>
@@ -2867,34 +2795,34 @@
       <c r="AO7" s="7"/>
     </row>
     <row r="8" spans="1:47" ht="51" customHeight="1">
-      <c r="B8" s="114" t="s">
+      <c r="B8" s="156" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="98"/>
-      <c r="D8" s="98"/>
-      <c r="E8" s="98"/>
-      <c r="F8" s="98"/>
-      <c r="G8" s="98"/>
-      <c r="H8" s="98"/>
-      <c r="I8" s="98"/>
-      <c r="J8" s="98"/>
-      <c r="K8" s="98"/>
-      <c r="L8" s="98"/>
-      <c r="M8" s="98"/>
-      <c r="N8" s="98"/>
-      <c r="O8" s="98"/>
-      <c r="P8" s="98"/>
-      <c r="Q8" s="98"/>
-      <c r="R8" s="98"/>
-      <c r="S8" s="98"/>
-      <c r="T8" s="98"/>
-      <c r="U8" s="98"/>
-      <c r="V8" s="98"/>
-      <c r="W8" s="98"/>
-      <c r="X8" s="98"/>
-      <c r="Y8" s="98"/>
-      <c r="Z8" s="98"/>
-      <c r="AA8" s="98"/>
+      <c r="C8" s="123"/>
+      <c r="D8" s="123"/>
+      <c r="E8" s="123"/>
+      <c r="F8" s="123"/>
+      <c r="G8" s="123"/>
+      <c r="H8" s="123"/>
+      <c r="I8" s="123"/>
+      <c r="J8" s="123"/>
+      <c r="K8" s="123"/>
+      <c r="L8" s="123"/>
+      <c r="M8" s="123"/>
+      <c r="N8" s="123"/>
+      <c r="O8" s="123"/>
+      <c r="P8" s="123"/>
+      <c r="Q8" s="123"/>
+      <c r="R8" s="123"/>
+      <c r="S8" s="123"/>
+      <c r="T8" s="123"/>
+      <c r="U8" s="123"/>
+      <c r="V8" s="123"/>
+      <c r="W8" s="123"/>
+      <c r="X8" s="123"/>
+      <c r="Y8" s="123"/>
+      <c r="Z8" s="123"/>
+      <c r="AA8" s="123"/>
       <c r="AB8" s="6"/>
       <c r="AC8" s="6"/>
       <c r="AD8" s="6"/>
@@ -2953,34 +2881,34 @@
       <c r="AO9" s="7"/>
     </row>
     <row r="10" spans="1:47" ht="20.25" customHeight="1">
-      <c r="B10" s="114" t="s">
-        <v>52</v>
+      <c r="B10" s="156" t="s">
+        <v>47</v>
       </c>
-      <c r="C10" s="98"/>
-      <c r="D10" s="98"/>
-      <c r="E10" s="98"/>
-      <c r="F10" s="98"/>
-      <c r="G10" s="98"/>
-      <c r="H10" s="98"/>
-      <c r="I10" s="98"/>
-      <c r="J10" s="98"/>
-      <c r="K10" s="98"/>
-      <c r="L10" s="98"/>
-      <c r="M10" s="98"/>
-      <c r="N10" s="98"/>
-      <c r="O10" s="98"/>
-      <c r="P10" s="98"/>
-      <c r="Q10" s="98"/>
-      <c r="R10" s="98"/>
-      <c r="S10" s="98"/>
-      <c r="T10" s="98"/>
-      <c r="U10" s="98"/>
-      <c r="V10" s="98"/>
-      <c r="W10" s="98"/>
-      <c r="X10" s="98"/>
-      <c r="Y10" s="98"/>
-      <c r="Z10" s="98"/>
-      <c r="AA10" s="98"/>
+      <c r="C10" s="123"/>
+      <c r="D10" s="123"/>
+      <c r="E10" s="123"/>
+      <c r="F10" s="123"/>
+      <c r="G10" s="123"/>
+      <c r="H10" s="123"/>
+      <c r="I10" s="123"/>
+      <c r="J10" s="123"/>
+      <c r="K10" s="123"/>
+      <c r="L10" s="123"/>
+      <c r="M10" s="123"/>
+      <c r="N10" s="123"/>
+      <c r="O10" s="123"/>
+      <c r="P10" s="123"/>
+      <c r="Q10" s="123"/>
+      <c r="R10" s="123"/>
+      <c r="S10" s="123"/>
+      <c r="T10" s="123"/>
+      <c r="U10" s="123"/>
+      <c r="V10" s="123"/>
+      <c r="W10" s="123"/>
+      <c r="X10" s="123"/>
+      <c r="Y10" s="123"/>
+      <c r="Z10" s="123"/>
+      <c r="AA10" s="123"/>
       <c r="AB10" s="6"/>
       <c r="AC10" s="6"/>
       <c r="AD10" s="6"/>
@@ -2998,34 +2926,34 @@
     </row>
     <row r="11" spans="1:47" ht="60" customHeight="1">
       <c r="A11" s="8"/>
-      <c r="B11" s="113" t="s">
+      <c r="B11" s="122" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="98"/>
-      <c r="D11" s="98"/>
-      <c r="E11" s="98"/>
-      <c r="F11" s="98"/>
-      <c r="G11" s="98"/>
-      <c r="H11" s="98"/>
-      <c r="I11" s="98"/>
-      <c r="J11" s="98"/>
-      <c r="K11" s="98"/>
-      <c r="L11" s="98"/>
-      <c r="M11" s="98"/>
-      <c r="N11" s="98"/>
-      <c r="O11" s="98"/>
-      <c r="P11" s="98"/>
-      <c r="Q11" s="98"/>
-      <c r="R11" s="98"/>
-      <c r="S11" s="98"/>
-      <c r="T11" s="98"/>
-      <c r="U11" s="98"/>
-      <c r="V11" s="98"/>
-      <c r="W11" s="98"/>
-      <c r="X11" s="98"/>
-      <c r="Y11" s="98"/>
-      <c r="Z11" s="98"/>
-      <c r="AA11" s="98"/>
+      <c r="C11" s="123"/>
+      <c r="D11" s="123"/>
+      <c r="E11" s="123"/>
+      <c r="F11" s="123"/>
+      <c r="G11" s="123"/>
+      <c r="H11" s="123"/>
+      <c r="I11" s="123"/>
+      <c r="J11" s="123"/>
+      <c r="K11" s="123"/>
+      <c r="L11" s="123"/>
+      <c r="M11" s="123"/>
+      <c r="N11" s="123"/>
+      <c r="O11" s="123"/>
+      <c r="P11" s="123"/>
+      <c r="Q11" s="123"/>
+      <c r="R11" s="123"/>
+      <c r="S11" s="123"/>
+      <c r="T11" s="123"/>
+      <c r="U11" s="123"/>
+      <c r="V11" s="123"/>
+      <c r="W11" s="123"/>
+      <c r="X11" s="123"/>
+      <c r="Y11" s="123"/>
+      <c r="Z11" s="123"/>
+      <c r="AA11" s="123"/>
       <c r="AB11" s="9"/>
       <c r="AC11" s="9"/>
       <c r="AD11" s="9"/>
@@ -3048,34 +2976,34 @@
       <c r="AU11" s="8"/>
     </row>
     <row r="12" spans="1:47" ht="20.25" customHeight="1">
-      <c r="B12" s="113" t="s">
+      <c r="B12" s="122" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="98"/>
-      <c r="D12" s="98"/>
-      <c r="E12" s="98"/>
-      <c r="F12" s="98"/>
-      <c r="G12" s="98"/>
-      <c r="H12" s="98"/>
-      <c r="I12" s="98"/>
-      <c r="J12" s="98"/>
-      <c r="K12" s="98"/>
-      <c r="L12" s="98"/>
-      <c r="M12" s="98"/>
-      <c r="N12" s="98"/>
-      <c r="O12" s="98"/>
-      <c r="P12" s="98"/>
-      <c r="Q12" s="98"/>
-      <c r="R12" s="98"/>
-      <c r="S12" s="98"/>
-      <c r="T12" s="98"/>
-      <c r="U12" s="98"/>
-      <c r="V12" s="98"/>
-      <c r="W12" s="98"/>
-      <c r="X12" s="98"/>
-      <c r="Y12" s="98"/>
-      <c r="Z12" s="98"/>
-      <c r="AA12" s="98"/>
+      <c r="C12" s="123"/>
+      <c r="D12" s="123"/>
+      <c r="E12" s="123"/>
+      <c r="F12" s="123"/>
+      <c r="G12" s="123"/>
+      <c r="H12" s="123"/>
+      <c r="I12" s="123"/>
+      <c r="J12" s="123"/>
+      <c r="K12" s="123"/>
+      <c r="L12" s="123"/>
+      <c r="M12" s="123"/>
+      <c r="N12" s="123"/>
+      <c r="O12" s="123"/>
+      <c r="P12" s="123"/>
+      <c r="Q12" s="123"/>
+      <c r="R12" s="123"/>
+      <c r="S12" s="123"/>
+      <c r="T12" s="123"/>
+      <c r="U12" s="123"/>
+      <c r="V12" s="123"/>
+      <c r="W12" s="123"/>
+      <c r="X12" s="123"/>
+      <c r="Y12" s="123"/>
+      <c r="Z12" s="123"/>
+      <c r="AA12" s="123"/>
       <c r="AB12" s="6"/>
       <c r="AC12" s="6"/>
       <c r="AD12" s="6"/>
@@ -3092,34 +3020,34 @@
       <c r="AO12" s="7"/>
     </row>
     <row r="13" spans="1:47" ht="20.25" customHeight="1">
-      <c r="B13" s="113" t="s">
+      <c r="B13" s="122" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="98"/>
-      <c r="D13" s="98"/>
-      <c r="E13" s="98"/>
-      <c r="F13" s="98"/>
-      <c r="G13" s="98"/>
-      <c r="H13" s="98"/>
-      <c r="I13" s="98"/>
-      <c r="J13" s="98"/>
-      <c r="K13" s="98"/>
-      <c r="L13" s="98"/>
-      <c r="M13" s="98"/>
-      <c r="N13" s="98"/>
-      <c r="O13" s="98"/>
-      <c r="P13" s="98"/>
-      <c r="Q13" s="98"/>
-      <c r="R13" s="98"/>
-      <c r="S13" s="98"/>
-      <c r="T13" s="98"/>
-      <c r="U13" s="98"/>
-      <c r="V13" s="98"/>
-      <c r="W13" s="98"/>
-      <c r="X13" s="98"/>
-      <c r="Y13" s="98"/>
-      <c r="Z13" s="98"/>
-      <c r="AA13" s="98"/>
+      <c r="C13" s="123"/>
+      <c r="D13" s="123"/>
+      <c r="E13" s="123"/>
+      <c r="F13" s="123"/>
+      <c r="G13" s="123"/>
+      <c r="H13" s="123"/>
+      <c r="I13" s="123"/>
+      <c r="J13" s="123"/>
+      <c r="K13" s="123"/>
+      <c r="L13" s="123"/>
+      <c r="M13" s="123"/>
+      <c r="N13" s="123"/>
+      <c r="O13" s="123"/>
+      <c r="P13" s="123"/>
+      <c r="Q13" s="123"/>
+      <c r="R13" s="123"/>
+      <c r="S13" s="123"/>
+      <c r="T13" s="123"/>
+      <c r="U13" s="123"/>
+      <c r="V13" s="123"/>
+      <c r="W13" s="123"/>
+      <c r="X13" s="123"/>
+      <c r="Y13" s="123"/>
+      <c r="Z13" s="123"/>
+      <c r="AA13" s="123"/>
       <c r="AB13" s="6"/>
       <c r="AC13" s="6"/>
       <c r="AD13" s="6"/>
@@ -3178,34 +3106,34 @@
       <c r="AO14" s="7"/>
     </row>
     <row r="15" spans="1:47" ht="24.75" customHeight="1">
-      <c r="B15" s="118" t="s">
+      <c r="B15" s="124" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="98"/>
-      <c r="D15" s="98"/>
-      <c r="E15" s="98"/>
-      <c r="F15" s="98"/>
-      <c r="G15" s="98"/>
-      <c r="H15" s="98"/>
-      <c r="I15" s="98"/>
-      <c r="J15" s="98"/>
-      <c r="K15" s="98"/>
-      <c r="L15" s="98"/>
-      <c r="M15" s="98"/>
-      <c r="N15" s="98"/>
-      <c r="O15" s="98"/>
-      <c r="P15" s="98"/>
-      <c r="Q15" s="98"/>
-      <c r="R15" s="98"/>
-      <c r="S15" s="98"/>
-      <c r="T15" s="98"/>
-      <c r="U15" s="98"/>
-      <c r="V15" s="98"/>
-      <c r="W15" s="98"/>
-      <c r="X15" s="98"/>
-      <c r="Y15" s="98"/>
-      <c r="Z15" s="98"/>
-      <c r="AA15" s="98"/>
+      <c r="C15" s="123"/>
+      <c r="D15" s="123"/>
+      <c r="E15" s="123"/>
+      <c r="F15" s="123"/>
+      <c r="G15" s="123"/>
+      <c r="H15" s="123"/>
+      <c r="I15" s="123"/>
+      <c r="J15" s="123"/>
+      <c r="K15" s="123"/>
+      <c r="L15" s="123"/>
+      <c r="M15" s="123"/>
+      <c r="N15" s="123"/>
+      <c r="O15" s="123"/>
+      <c r="P15" s="123"/>
+      <c r="Q15" s="123"/>
+      <c r="R15" s="123"/>
+      <c r="S15" s="123"/>
+      <c r="T15" s="123"/>
+      <c r="U15" s="123"/>
+      <c r="V15" s="123"/>
+      <c r="W15" s="123"/>
+      <c r="X15" s="123"/>
+      <c r="Y15" s="123"/>
+      <c r="Z15" s="123"/>
+      <c r="AA15" s="123"/>
       <c r="AB15" s="6"/>
       <c r="AC15" s="6"/>
       <c r="AD15" s="6"/>
@@ -3223,34 +3151,34 @@
     </row>
     <row r="16" spans="1:47" ht="24.75" customHeight="1">
       <c r="A16" s="2"/>
-      <c r="B16" s="119" t="s">
+      <c r="B16" s="125" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="98"/>
-      <c r="D16" s="98"/>
-      <c r="E16" s="98"/>
-      <c r="F16" s="98"/>
-      <c r="G16" s="98"/>
-      <c r="H16" s="98"/>
-      <c r="I16" s="98"/>
-      <c r="J16" s="98"/>
-      <c r="K16" s="98"/>
-      <c r="L16" s="98"/>
-      <c r="M16" s="98"/>
-      <c r="N16" s="98"/>
-      <c r="O16" s="98"/>
-      <c r="P16" s="98"/>
-      <c r="Q16" s="98"/>
-      <c r="R16" s="98"/>
-      <c r="S16" s="98"/>
-      <c r="T16" s="98"/>
-      <c r="U16" s="98"/>
-      <c r="V16" s="98"/>
-      <c r="W16" s="98"/>
-      <c r="X16" s="98"/>
-      <c r="Y16" s="98"/>
-      <c r="Z16" s="98"/>
-      <c r="AA16" s="98"/>
+      <c r="C16" s="123"/>
+      <c r="D16" s="123"/>
+      <c r="E16" s="123"/>
+      <c r="F16" s="123"/>
+      <c r="G16" s="123"/>
+      <c r="H16" s="123"/>
+      <c r="I16" s="123"/>
+      <c r="J16" s="123"/>
+      <c r="K16" s="123"/>
+      <c r="L16" s="123"/>
+      <c r="M16" s="123"/>
+      <c r="N16" s="123"/>
+      <c r="O16" s="123"/>
+      <c r="P16" s="123"/>
+      <c r="Q16" s="123"/>
+      <c r="R16" s="123"/>
+      <c r="S16" s="123"/>
+      <c r="T16" s="123"/>
+      <c r="U16" s="123"/>
+      <c r="V16" s="123"/>
+      <c r="W16" s="123"/>
+      <c r="X16" s="123"/>
+      <c r="Y16" s="123"/>
+      <c r="Z16" s="123"/>
+      <c r="AA16" s="123"/>
       <c r="AB16" s="12"/>
       <c r="AC16" s="12"/>
       <c r="AD16" s="12"/>
@@ -3273,34 +3201,34 @@
       <c r="AU16" s="2"/>
     </row>
     <row r="17" spans="1:47" ht="24.75" customHeight="1">
-      <c r="B17" s="118" t="s">
+      <c r="B17" s="124" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="98"/>
-      <c r="D17" s="98"/>
-      <c r="E17" s="98"/>
-      <c r="F17" s="98"/>
-      <c r="G17" s="98"/>
-      <c r="H17" s="98"/>
-      <c r="I17" s="98"/>
-      <c r="J17" s="98"/>
-      <c r="K17" s="98"/>
-      <c r="L17" s="98"/>
-      <c r="M17" s="98"/>
-      <c r="N17" s="98"/>
-      <c r="O17" s="98"/>
-      <c r="P17" s="98"/>
-      <c r="Q17" s="98"/>
-      <c r="R17" s="98"/>
-      <c r="S17" s="98"/>
-      <c r="T17" s="98"/>
-      <c r="U17" s="98"/>
-      <c r="V17" s="98"/>
-      <c r="W17" s="98"/>
-      <c r="X17" s="98"/>
-      <c r="Y17" s="98"/>
-      <c r="Z17" s="98"/>
-      <c r="AA17" s="98"/>
+      <c r="C17" s="123"/>
+      <c r="D17" s="123"/>
+      <c r="E17" s="123"/>
+      <c r="F17" s="123"/>
+      <c r="G17" s="123"/>
+      <c r="H17" s="123"/>
+      <c r="I17" s="123"/>
+      <c r="J17" s="123"/>
+      <c r="K17" s="123"/>
+      <c r="L17" s="123"/>
+      <c r="M17" s="123"/>
+      <c r="N17" s="123"/>
+      <c r="O17" s="123"/>
+      <c r="P17" s="123"/>
+      <c r="Q17" s="123"/>
+      <c r="R17" s="123"/>
+      <c r="S17" s="123"/>
+      <c r="T17" s="123"/>
+      <c r="U17" s="123"/>
+      <c r="V17" s="123"/>
+      <c r="W17" s="123"/>
+      <c r="X17" s="123"/>
+      <c r="Y17" s="123"/>
+      <c r="Z17" s="123"/>
+      <c r="AA17" s="123"/>
       <c r="AB17" s="6"/>
       <c r="AC17" s="6"/>
       <c r="AD17" s="6"/>
@@ -3317,32 +3245,32 @@
       <c r="AO17" s="7"/>
     </row>
     <row r="18" spans="1:47" ht="6.75" customHeight="1" thickBot="1">
-      <c r="B18" s="118"/>
-      <c r="C18" s="98"/>
-      <c r="D18" s="98"/>
-      <c r="E18" s="98"/>
-      <c r="F18" s="98"/>
-      <c r="G18" s="98"/>
-      <c r="H18" s="98"/>
-      <c r="I18" s="98"/>
-      <c r="J18" s="98"/>
-      <c r="K18" s="98"/>
-      <c r="L18" s="98"/>
-      <c r="M18" s="98"/>
-      <c r="N18" s="98"/>
-      <c r="O18" s="98"/>
-      <c r="P18" s="98"/>
-      <c r="Q18" s="98"/>
-      <c r="R18" s="98"/>
-      <c r="S18" s="98"/>
-      <c r="T18" s="98"/>
-      <c r="U18" s="98"/>
-      <c r="V18" s="98"/>
-      <c r="W18" s="98"/>
-      <c r="X18" s="98"/>
-      <c r="Y18" s="98"/>
-      <c r="Z18" s="98"/>
-      <c r="AA18" s="98"/>
+      <c r="B18" s="124"/>
+      <c r="C18" s="123"/>
+      <c r="D18" s="123"/>
+      <c r="E18" s="123"/>
+      <c r="F18" s="123"/>
+      <c r="G18" s="123"/>
+      <c r="H18" s="123"/>
+      <c r="I18" s="123"/>
+      <c r="J18" s="123"/>
+      <c r="K18" s="123"/>
+      <c r="L18" s="123"/>
+      <c r="M18" s="123"/>
+      <c r="N18" s="123"/>
+      <c r="O18" s="123"/>
+      <c r="P18" s="123"/>
+      <c r="Q18" s="123"/>
+      <c r="R18" s="123"/>
+      <c r="S18" s="123"/>
+      <c r="T18" s="123"/>
+      <c r="U18" s="123"/>
+      <c r="V18" s="123"/>
+      <c r="W18" s="123"/>
+      <c r="X18" s="123"/>
+      <c r="Y18" s="123"/>
+      <c r="Z18" s="123"/>
+      <c r="AA18" s="123"/>
       <c r="AB18" s="6"/>
       <c r="AC18" s="6"/>
       <c r="AD18" s="6"/>
@@ -3360,48 +3288,48 @@
     </row>
     <row r="19" spans="1:47" ht="10.5" customHeight="1">
       <c r="A19" s="14"/>
-      <c r="B19" s="120" t="s">
+      <c r="B19" s="135" t="s">
         <v>11</v>
       </c>
-      <c r="C19" s="121" t="s">
+      <c r="C19" s="138" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="170"/>
-      <c r="E19" s="171"/>
-      <c r="F19" s="158" t="s">
+      <c r="D19" s="139"/>
+      <c r="E19" s="140"/>
+      <c r="F19" s="147" t="s">
         <v>13</v>
       </c>
-      <c r="G19" s="152" t="s">
-        <v>61</v>
+      <c r="G19" s="108" t="s">
+        <v>56</v>
       </c>
-      <c r="H19" s="147"/>
-      <c r="I19" s="147"/>
-      <c r="J19" s="148"/>
-      <c r="K19" s="146" t="s">
-        <v>62</v>
+      <c r="H19" s="102"/>
+      <c r="I19" s="102"/>
+      <c r="J19" s="103"/>
+      <c r="K19" s="101" t="s">
+        <v>57</v>
       </c>
-      <c r="L19" s="147"/>
-      <c r="M19" s="147"/>
-      <c r="N19" s="148"/>
-      <c r="O19" s="146" t="s">
-        <v>63</v>
+      <c r="L19" s="102"/>
+      <c r="M19" s="102"/>
+      <c r="N19" s="103"/>
+      <c r="O19" s="101" t="s">
+        <v>58</v>
       </c>
-      <c r="P19" s="147"/>
-      <c r="Q19" s="147"/>
-      <c r="R19" s="148"/>
-      <c r="S19" s="146" t="s">
-        <v>64</v>
+      <c r="P19" s="102"/>
+      <c r="Q19" s="102"/>
+      <c r="R19" s="103"/>
+      <c r="S19" s="101" t="s">
+        <v>59</v>
       </c>
-      <c r="T19" s="147"/>
-      <c r="U19" s="147"/>
-      <c r="V19" s="148"/>
-      <c r="W19" s="137" t="s">
+      <c r="T19" s="102"/>
+      <c r="U19" s="102"/>
+      <c r="V19" s="103"/>
+      <c r="W19" s="126" t="s">
         <v>14</v>
       </c>
-      <c r="X19" s="138"/>
-      <c r="Y19" s="138"/>
-      <c r="Z19" s="139"/>
-      <c r="AA19" s="122" t="s">
+      <c r="X19" s="127"/>
+      <c r="Y19" s="127"/>
+      <c r="Z19" s="128"/>
+      <c r="AA19" s="150" t="s">
         <v>15</v>
       </c>
       <c r="AB19" s="14"/>
@@ -3427,32 +3355,32 @@
     </row>
     <row r="20" spans="1:47" ht="10.5" customHeight="1">
       <c r="A20" s="14"/>
-      <c r="B20" s="184"/>
-      <c r="C20" s="172"/>
-      <c r="D20" s="173"/>
-      <c r="E20" s="174"/>
-      <c r="F20" s="159"/>
-      <c r="G20" s="153"/>
-      <c r="H20" s="150"/>
-      <c r="I20" s="150"/>
-      <c r="J20" s="151"/>
-      <c r="K20" s="149"/>
-      <c r="L20" s="150"/>
-      <c r="M20" s="150"/>
-      <c r="N20" s="151"/>
-      <c r="O20" s="149"/>
-      <c r="P20" s="150"/>
-      <c r="Q20" s="150"/>
-      <c r="R20" s="151"/>
-      <c r="S20" s="149"/>
-      <c r="T20" s="150"/>
-      <c r="U20" s="150"/>
-      <c r="V20" s="151"/>
-      <c r="W20" s="140"/>
-      <c r="X20" s="141"/>
-      <c r="Y20" s="141"/>
-      <c r="Z20" s="142"/>
-      <c r="AA20" s="132"/>
+      <c r="B20" s="136"/>
+      <c r="C20" s="141"/>
+      <c r="D20" s="142"/>
+      <c r="E20" s="143"/>
+      <c r="F20" s="148"/>
+      <c r="G20" s="109"/>
+      <c r="H20" s="105"/>
+      <c r="I20" s="105"/>
+      <c r="J20" s="106"/>
+      <c r="K20" s="104"/>
+      <c r="L20" s="105"/>
+      <c r="M20" s="105"/>
+      <c r="N20" s="106"/>
+      <c r="O20" s="104"/>
+      <c r="P20" s="105"/>
+      <c r="Q20" s="105"/>
+      <c r="R20" s="106"/>
+      <c r="S20" s="104"/>
+      <c r="T20" s="105"/>
+      <c r="U20" s="105"/>
+      <c r="V20" s="106"/>
+      <c r="W20" s="129"/>
+      <c r="X20" s="130"/>
+      <c r="Y20" s="130"/>
+      <c r="Z20" s="131"/>
+      <c r="AA20" s="151"/>
       <c r="AB20" s="14"/>
       <c r="AC20" s="14"/>
       <c r="AD20" s="14"/>
@@ -3476,40 +3404,40 @@
     </row>
     <row r="21" spans="1:47" ht="34.5" customHeight="1">
       <c r="A21" s="15"/>
-      <c r="B21" s="184"/>
-      <c r="C21" s="172"/>
-      <c r="D21" s="173"/>
-      <c r="E21" s="174"/>
-      <c r="F21" s="159"/>
-      <c r="G21" s="157" t="s">
-        <v>60</v>
+      <c r="B21" s="136"/>
+      <c r="C21" s="141"/>
+      <c r="D21" s="142"/>
+      <c r="E21" s="143"/>
+      <c r="F21" s="148"/>
+      <c r="G21" s="98" t="s">
+        <v>55</v>
       </c>
-      <c r="H21" s="155"/>
-      <c r="I21" s="155"/>
-      <c r="J21" s="156"/>
-      <c r="K21" s="154" t="s">
-        <v>60</v>
+      <c r="H21" s="99"/>
+      <c r="I21" s="99"/>
+      <c r="J21" s="100"/>
+      <c r="K21" s="107" t="s">
+        <v>55</v>
       </c>
-      <c r="L21" s="155"/>
-      <c r="M21" s="155"/>
-      <c r="N21" s="156"/>
-      <c r="O21" s="154" t="s">
-        <v>60</v>
+      <c r="L21" s="99"/>
+      <c r="M21" s="99"/>
+      <c r="N21" s="100"/>
+      <c r="O21" s="107" t="s">
+        <v>55</v>
       </c>
-      <c r="P21" s="155"/>
-      <c r="Q21" s="155"/>
-      <c r="R21" s="156"/>
-      <c r="S21" s="154" t="s">
-        <v>60</v>
+      <c r="P21" s="99"/>
+      <c r="Q21" s="99"/>
+      <c r="R21" s="100"/>
+      <c r="S21" s="107" t="s">
+        <v>55</v>
       </c>
-      <c r="T21" s="155"/>
-      <c r="U21" s="155"/>
-      <c r="V21" s="156"/>
-      <c r="W21" s="143"/>
-      <c r="X21" s="144"/>
-      <c r="Y21" s="144"/>
-      <c r="Z21" s="145"/>
-      <c r="AA21" s="132"/>
+      <c r="T21" s="99"/>
+      <c r="U21" s="99"/>
+      <c r="V21" s="100"/>
+      <c r="W21" s="132"/>
+      <c r="X21" s="133"/>
+      <c r="Y21" s="133"/>
+      <c r="Z21" s="134"/>
+      <c r="AA21" s="151"/>
       <c r="AB21" s="15"/>
       <c r="AC21" s="15"/>
       <c r="AD21" s="15"/>
@@ -3533,37 +3461,37 @@
     </row>
     <row r="22" spans="1:47" ht="38.25" customHeight="1">
       <c r="A22" s="14"/>
-      <c r="B22" s="185"/>
-      <c r="C22" s="175"/>
-      <c r="D22" s="176"/>
-      <c r="E22" s="177"/>
-      <c r="F22" s="160"/>
+      <c r="B22" s="137"/>
+      <c r="C22" s="144"/>
+      <c r="D22" s="145"/>
+      <c r="E22" s="146"/>
+      <c r="F22" s="149"/>
       <c r="G22" s="72" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="H22" s="72" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="I22" s="73" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="J22" s="73" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="K22" s="72" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="L22" s="72" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="M22" s="72" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="N22" s="72" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="O22" s="72" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="P22" s="72" t="s">
         <v>16</v>
@@ -3575,7 +3503,7 @@
         <v>18</v>
       </c>
       <c r="S22" s="72" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="T22" s="72" t="s">
         <v>16</v>
@@ -3586,11 +3514,11 @@
       <c r="V22" s="72" t="s">
         <v>18</v>
       </c>
-      <c r="W22" s="134"/>
-      <c r="X22" s="135"/>
-      <c r="Y22" s="135"/>
-      <c r="Z22" s="136"/>
-      <c r="AA22" s="133"/>
+      <c r="W22" s="153"/>
+      <c r="X22" s="154"/>
+      <c r="Y22" s="154"/>
+      <c r="Z22" s="155"/>
+      <c r="AA22" s="152"/>
       <c r="AB22" s="14"/>
       <c r="AC22" s="14"/>
       <c r="AD22" s="14"/>
@@ -3617,13 +3545,13 @@
       <c r="B23" s="17">
         <v>1</v>
       </c>
-      <c r="C23" s="115" t="s">
-        <v>160</v>
+      <c r="C23" s="110" t="s">
+        <v>135</v>
       </c>
-      <c r="D23" s="116"/>
-      <c r="E23" s="117"/>
+      <c r="D23" s="111"/>
+      <c r="E23" s="112"/>
       <c r="F23" s="65" t="s">
-        <v>161</v>
+        <v>136</v>
       </c>
       <c r="G23" s="18"/>
       <c r="H23" s="18" t="s">
@@ -3643,14 +3571,14 @@
       <c r="T23" s="19"/>
       <c r="U23" s="19"/>
       <c r="V23" s="19"/>
-      <c r="W23" s="89" t="s">
-        <v>162</v>
+      <c r="W23" s="113" t="s">
+        <v>137</v>
       </c>
-      <c r="X23" s="90"/>
-      <c r="Y23" s="90"/>
-      <c r="Z23" s="91"/>
+      <c r="X23" s="114"/>
+      <c r="Y23" s="114"/>
+      <c r="Z23" s="115"/>
       <c r="AA23" s="20" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AB23" s="16"/>
       <c r="AC23" s="16"/>
@@ -3678,13 +3606,13 @@
       <c r="B24" s="17">
         <v>2</v>
       </c>
-      <c r="C24" s="167" t="s">
-        <v>163</v>
+      <c r="C24" s="116" t="s">
+        <v>138</v>
       </c>
-      <c r="D24" s="168"/>
-      <c r="E24" s="169"/>
+      <c r="D24" s="117"/>
+      <c r="E24" s="118"/>
       <c r="F24" s="65" t="s">
-        <v>161</v>
+        <v>136</v>
       </c>
       <c r="G24" s="19"/>
       <c r="H24" s="19"/>
@@ -3704,14 +3632,14 @@
       <c r="T24" s="19"/>
       <c r="U24" s="19"/>
       <c r="V24" s="19"/>
-      <c r="W24" s="186" t="s">
-        <v>164</v>
+      <c r="W24" s="119" t="s">
+        <v>140</v>
       </c>
-      <c r="X24" s="187"/>
-      <c r="Y24" s="187"/>
-      <c r="Z24" s="188"/>
+      <c r="X24" s="120"/>
+      <c r="Y24" s="120"/>
+      <c r="Z24" s="121"/>
       <c r="AA24" s="20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AB24" s="16"/>
       <c r="AC24" s="16"/>
@@ -3736,16 +3664,16 @@
     </row>
     <row r="25" spans="1:47" ht="165" customHeight="1">
       <c r="A25" s="16"/>
-      <c r="B25" s="80" t="s">
-        <v>72</v>
+      <c r="B25" s="80">
+        <v>3</v>
       </c>
-      <c r="C25" s="178" t="s">
-        <v>165</v>
+      <c r="C25" s="89" t="s">
+        <v>141</v>
       </c>
-      <c r="D25" s="179"/>
-      <c r="E25" s="180"/>
+      <c r="D25" s="90"/>
+      <c r="E25" s="91"/>
       <c r="F25" s="65" t="s">
-        <v>161</v>
+        <v>136</v>
       </c>
       <c r="G25" s="19"/>
       <c r="H25" s="19"/>
@@ -3765,14 +3693,14 @@
       <c r="T25" s="19"/>
       <c r="U25" s="19"/>
       <c r="V25" s="19"/>
-      <c r="W25" s="123" t="s">
-        <v>166</v>
+      <c r="W25" s="92" t="s">
+        <v>142</v>
       </c>
-      <c r="X25" s="124"/>
-      <c r="Y25" s="124"/>
-      <c r="Z25" s="125"/>
+      <c r="X25" s="93"/>
+      <c r="Y25" s="93"/>
+      <c r="Z25" s="94"/>
       <c r="AA25" s="20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AB25" s="16"/>
       <c r="AC25" s="16"/>
@@ -3797,16 +3725,16 @@
     </row>
     <row r="26" spans="1:47" ht="178.8" customHeight="1">
       <c r="A26" s="16"/>
-      <c r="B26" s="80" t="s">
-        <v>73</v>
+      <c r="B26" s="80">
+        <v>4</v>
       </c>
-      <c r="C26" s="181" t="s">
-        <v>167</v>
+      <c r="C26" s="95" t="s">
+        <v>143</v>
       </c>
-      <c r="D26" s="182"/>
-      <c r="E26" s="183"/>
+      <c r="D26" s="96"/>
+      <c r="E26" s="97"/>
       <c r="F26" s="65" t="s">
-        <v>161</v>
+        <v>136</v>
       </c>
       <c r="G26" s="19"/>
       <c r="H26" s="19"/>
@@ -3826,14 +3754,14 @@
       <c r="T26" s="19"/>
       <c r="U26" s="19"/>
       <c r="V26" s="19"/>
-      <c r="W26" s="123" t="s">
-        <v>168</v>
+      <c r="W26" s="92" t="s">
+        <v>144</v>
       </c>
-      <c r="X26" s="124"/>
-      <c r="Y26" s="124"/>
-      <c r="Z26" s="125"/>
+      <c r="X26" s="93"/>
+      <c r="Y26" s="93"/>
+      <c r="Z26" s="94"/>
       <c r="AA26" s="20" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AB26" s="16"/>
       <c r="AC26" s="16"/>
@@ -3858,16 +3786,16 @@
     </row>
     <row r="27" spans="1:47" ht="161.4" customHeight="1">
       <c r="A27" s="16"/>
-      <c r="B27" s="80" t="s">
-        <v>74</v>
+      <c r="B27" s="80">
+        <v>5</v>
       </c>
-      <c r="C27" s="178" t="s">
-        <v>169</v>
+      <c r="C27" s="89" t="s">
+        <v>139</v>
       </c>
-      <c r="D27" s="179"/>
-      <c r="E27" s="180"/>
+      <c r="D27" s="90"/>
+      <c r="E27" s="91"/>
       <c r="F27" s="65" t="s">
-        <v>161</v>
+        <v>136</v>
       </c>
       <c r="G27" s="19"/>
       <c r="H27" s="19"/>
@@ -3887,14 +3815,14 @@
       <c r="T27" s="19"/>
       <c r="U27" s="19"/>
       <c r="V27" s="19"/>
-      <c r="W27" s="123" t="s">
-        <v>170</v>
+      <c r="W27" s="92" t="s">
+        <v>145</v>
       </c>
-      <c r="X27" s="124"/>
-      <c r="Y27" s="124"/>
-      <c r="Z27" s="125"/>
+      <c r="X27" s="93"/>
+      <c r="Y27" s="93"/>
+      <c r="Z27" s="94"/>
       <c r="AA27" s="20" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="AB27" s="16"/>
       <c r="AC27" s="16"/>
@@ -3919,23 +3847,25 @@
     </row>
     <row r="28" spans="1:47" ht="161.4" customHeight="1">
       <c r="A28" s="16"/>
-      <c r="B28" s="80" t="s">
-        <v>75</v>
+      <c r="B28" s="17">
+        <v>4</v>
       </c>
-      <c r="C28" s="178" t="s">
-        <v>169</v>
+      <c r="C28" s="116" t="s">
+        <v>20</v>
       </c>
-      <c r="D28" s="179"/>
-      <c r="E28" s="180"/>
-      <c r="F28" s="65">
-        <v>2</v>
+      <c r="D28" s="117"/>
+      <c r="E28" s="118"/>
+      <c r="F28" s="67" t="s">
+        <v>136</v>
       </c>
       <c r="G28" s="19"/>
       <c r="H28" s="19"/>
-      <c r="I28" s="22"/>
+      <c r="I28" s="19"/>
       <c r="J28" s="19"/>
-      <c r="K28" s="19"/>
-      <c r="L28" s="19"/>
+      <c r="K28" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="L28" s="22"/>
       <c r="M28" s="19"/>
       <c r="N28" s="19"/>
       <c r="O28" s="19"/>
@@ -3946,14 +3876,14 @@
       <c r="T28" s="19"/>
       <c r="U28" s="19"/>
       <c r="V28" s="19"/>
-      <c r="W28" s="123" t="s">
-        <v>85</v>
+      <c r="W28" s="113" t="s">
+        <v>146</v>
       </c>
-      <c r="X28" s="124"/>
-      <c r="Y28" s="124"/>
-      <c r="Z28" s="125"/>
+      <c r="X28" s="114"/>
+      <c r="Y28" s="114"/>
+      <c r="Z28" s="115"/>
       <c r="AA28" s="20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AB28" s="16"/>
       <c r="AC28" s="16"/>
@@ -3978,24 +3908,26 @@
     </row>
     <row r="29" spans="1:47" ht="161.4" customHeight="1">
       <c r="A29" s="16"/>
-      <c r="B29" s="80" t="s">
-        <v>76</v>
+      <c r="B29" s="80">
+        <v>5</v>
       </c>
-      <c r="C29" s="178" t="s">
-        <v>86</v>
+      <c r="C29" s="173" t="s">
+        <v>21</v>
       </c>
-      <c r="D29" s="179"/>
-      <c r="E29" s="180"/>
-      <c r="F29" s="65">
-        <v>2</v>
+      <c r="D29" s="174"/>
+      <c r="E29" s="175"/>
+      <c r="F29" s="69" t="s">
+        <v>136</v>
       </c>
-      <c r="G29" s="19"/>
+      <c r="G29" s="81"/>
       <c r="H29" s="19"/>
-      <c r="I29" s="22"/>
+      <c r="I29" s="19"/>
       <c r="J29" s="19"/>
       <c r="K29" s="19"/>
-      <c r="L29" s="19"/>
-      <c r="M29" s="19"/>
+      <c r="L29" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="M29" s="22"/>
       <c r="N29" s="19"/>
       <c r="O29" s="19"/>
       <c r="P29" s="19"/>
@@ -4005,14 +3937,14 @@
       <c r="T29" s="19"/>
       <c r="U29" s="19"/>
       <c r="V29" s="19"/>
-      <c r="W29" s="123" t="s">
-        <v>87</v>
+      <c r="W29" s="113" t="s">
+        <v>147</v>
       </c>
-      <c r="X29" s="124"/>
-      <c r="Y29" s="124"/>
-      <c r="Z29" s="125"/>
+      <c r="X29" s="114"/>
+      <c r="Y29" s="114"/>
+      <c r="Z29" s="115"/>
       <c r="AA29" s="20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AB29" s="16"/>
       <c r="AC29" s="16"/>
@@ -4037,42 +3969,32 @@
     </row>
     <row r="30" spans="1:47" ht="161.4" customHeight="1">
       <c r="A30" s="16"/>
-      <c r="B30" s="80" t="s">
-        <v>77</v>
-      </c>
-      <c r="C30" s="178" t="s">
-        <v>94</v>
-      </c>
-      <c r="D30" s="179"/>
-      <c r="E30" s="180"/>
-      <c r="F30" s="65">
-        <v>2</v>
-      </c>
-      <c r="G30" s="19"/>
-      <c r="H30" s="19"/>
-      <c r="I30" s="22"/>
-      <c r="J30" s="19"/>
-      <c r="K30" s="19"/>
-      <c r="L30" s="19"/>
-      <c r="M30" s="19"/>
-      <c r="N30" s="19"/>
-      <c r="O30" s="19"/>
-      <c r="P30" s="19"/>
-      <c r="Q30" s="19"/>
-      <c r="R30" s="19"/>
-      <c r="S30" s="19"/>
-      <c r="T30" s="19"/>
-      <c r="U30" s="19"/>
-      <c r="V30" s="19"/>
-      <c r="W30" s="123" t="s">
-        <v>95</v>
-      </c>
-      <c r="X30" s="124"/>
-      <c r="Y30" s="124"/>
-      <c r="Z30" s="125"/>
-      <c r="AA30" s="20" t="s">
-        <v>46</v>
-      </c>
+      <c r="B30" s="24"/>
+      <c r="C30" s="25"/>
+      <c r="D30" s="25"/>
+      <c r="E30" s="25"/>
+      <c r="F30" s="25"/>
+      <c r="G30" s="26"/>
+      <c r="H30" s="26"/>
+      <c r="I30" s="26"/>
+      <c r="J30" s="26"/>
+      <c r="K30" s="26"/>
+      <c r="L30" s="26"/>
+      <c r="M30" s="26"/>
+      <c r="N30" s="26"/>
+      <c r="O30" s="26"/>
+      <c r="P30" s="26"/>
+      <c r="Q30" s="26"/>
+      <c r="R30" s="26"/>
+      <c r="S30" s="26"/>
+      <c r="T30" s="26"/>
+      <c r="U30" s="26"/>
+      <c r="V30" s="26"/>
+      <c r="W30" s="179"/>
+      <c r="X30" s="123"/>
+      <c r="Y30" s="123"/>
+      <c r="Z30" s="123"/>
+      <c r="AA30" s="27"/>
       <c r="AB30" s="16"/>
       <c r="AC30" s="16"/>
       <c r="AD30" s="16"/>
@@ -4096,42 +4018,32 @@
     </row>
     <row r="31" spans="1:47" ht="161.4" customHeight="1">
       <c r="A31" s="16"/>
-      <c r="B31" s="80" t="s">
-        <v>78</v>
-      </c>
-      <c r="C31" s="178" t="s">
-        <v>88</v>
-      </c>
-      <c r="D31" s="179"/>
-      <c r="E31" s="180"/>
-      <c r="F31" s="65">
-        <v>2</v>
-      </c>
-      <c r="G31" s="19"/>
-      <c r="H31" s="19"/>
-      <c r="I31" s="22"/>
-      <c r="J31" s="19"/>
-      <c r="K31" s="19"/>
-      <c r="L31" s="19"/>
-      <c r="M31" s="19"/>
-      <c r="N31" s="19"/>
-      <c r="O31" s="19"/>
-      <c r="P31" s="19"/>
-      <c r="Q31" s="19"/>
-      <c r="R31" s="19"/>
-      <c r="S31" s="19"/>
-      <c r="T31" s="19"/>
-      <c r="U31" s="19"/>
-      <c r="V31" s="19"/>
-      <c r="W31" s="123" t="s">
-        <v>89</v>
-      </c>
-      <c r="X31" s="124"/>
-      <c r="Y31" s="124"/>
-      <c r="Z31" s="125"/>
-      <c r="AA31" s="20" t="s">
-        <v>45</v>
-      </c>
+      <c r="B31" s="24"/>
+      <c r="C31" s="25"/>
+      <c r="D31" s="25"/>
+      <c r="E31" s="25"/>
+      <c r="F31" s="28"/>
+      <c r="G31" s="26"/>
+      <c r="H31" s="26"/>
+      <c r="I31" s="29"/>
+      <c r="J31" s="29"/>
+      <c r="K31" s="29"/>
+      <c r="L31" s="29"/>
+      <c r="M31" s="29"/>
+      <c r="N31" s="29"/>
+      <c r="O31" s="29"/>
+      <c r="P31" s="29"/>
+      <c r="Q31" s="29"/>
+      <c r="R31" s="29"/>
+      <c r="S31" s="29"/>
+      <c r="T31" s="29"/>
+      <c r="U31" s="29"/>
+      <c r="V31" s="29"/>
+      <c r="W31" s="179"/>
+      <c r="X31" s="123"/>
+      <c r="Y31" s="123"/>
+      <c r="Z31" s="123"/>
+      <c r="AA31" s="27"/>
       <c r="AB31" s="16"/>
       <c r="AC31" s="16"/>
       <c r="AD31" s="16"/>
@@ -4155,42 +4067,22 @@
     </row>
     <row r="32" spans="1:47" ht="161.4" customHeight="1">
       <c r="A32" s="16"/>
-      <c r="B32" s="80" t="s">
-        <v>79</v>
+      <c r="B32" s="30"/>
+      <c r="C32" s="31" t="s">
+        <v>22</v>
       </c>
-      <c r="C32" s="178" t="s">
-        <v>90</v>
+      <c r="F32" s="32"/>
+      <c r="G32" s="33" t="s">
+        <v>23</v>
       </c>
-      <c r="D32" s="179"/>
-      <c r="E32" s="180"/>
-      <c r="F32" s="65">
-        <v>2</v>
-      </c>
-      <c r="G32" s="19"/>
-      <c r="H32" s="19"/>
-      <c r="I32" s="22"/>
-      <c r="J32" s="19"/>
-      <c r="K32" s="19"/>
-      <c r="L32" s="19"/>
-      <c r="M32" s="19"/>
-      <c r="N32" s="19"/>
-      <c r="O32" s="19"/>
-      <c r="P32" s="19"/>
-      <c r="Q32" s="19"/>
-      <c r="R32" s="19"/>
-      <c r="S32" s="19"/>
-      <c r="T32" s="19"/>
-      <c r="U32" s="19"/>
-      <c r="V32" s="19"/>
-      <c r="W32" s="123" t="s">
-        <v>91</v>
-      </c>
-      <c r="X32" s="124"/>
-      <c r="Y32" s="124"/>
-      <c r="Z32" s="125"/>
-      <c r="AA32" s="20" t="s">
-        <v>44</v>
-      </c>
+      <c r="H32" s="16"/>
+      <c r="I32" s="34"/>
+      <c r="J32" s="16"/>
+      <c r="W32" s="178"/>
+      <c r="X32" s="123"/>
+      <c r="Y32" s="123"/>
+      <c r="Z32" s="123"/>
+      <c r="AA32" s="23"/>
       <c r="AB32" s="16"/>
       <c r="AC32" s="16"/>
       <c r="AD32" s="16"/>
@@ -4214,42 +4106,25 @@
     </row>
     <row r="33" spans="1:47" ht="161.4" customHeight="1">
       <c r="A33" s="16"/>
-      <c r="B33" s="80" t="s">
-        <v>80</v>
-      </c>
-      <c r="C33" s="178" t="s">
-        <v>92</v>
-      </c>
-      <c r="D33" s="179"/>
-      <c r="E33" s="180"/>
-      <c r="F33" s="65">
-        <v>2</v>
-      </c>
-      <c r="G33" s="19"/>
-      <c r="H33" s="19"/>
-      <c r="I33" s="22"/>
-      <c r="J33" s="19"/>
-      <c r="K33" s="19"/>
-      <c r="L33" s="19"/>
-      <c r="M33" s="19"/>
-      <c r="N33" s="19"/>
-      <c r="O33" s="19"/>
-      <c r="P33" s="19"/>
-      <c r="Q33" s="19"/>
-      <c r="R33" s="19"/>
-      <c r="S33" s="19"/>
-      <c r="T33" s="19"/>
-      <c r="U33" s="19"/>
-      <c r="V33" s="19"/>
-      <c r="W33" s="123" t="s">
-        <v>93</v>
-      </c>
-      <c r="X33" s="124"/>
-      <c r="Y33" s="124"/>
-      <c r="Z33" s="125"/>
-      <c r="AA33" s="20" t="s">
-        <v>44</v>
-      </c>
+      <c r="B33" s="24"/>
+      <c r="C33" s="28"/>
+      <c r="F33" s="16"/>
+      <c r="I33" s="35"/>
+      <c r="J33" s="36"/>
+      <c r="K33" s="36"/>
+      <c r="L33" s="35"/>
+      <c r="M33" s="35"/>
+      <c r="N33" s="37"/>
+      <c r="O33" s="37"/>
+      <c r="P33" s="37"/>
+      <c r="Q33" s="37"/>
+      <c r="R33" s="37"/>
+      <c r="S33" s="37"/>
+      <c r="T33" s="37"/>
+      <c r="U33" s="37"/>
+      <c r="V33" s="37"/>
+      <c r="W33" s="16"/>
+      <c r="AA33" s="23"/>
       <c r="AB33" s="16"/>
       <c r="AC33" s="16"/>
       <c r="AD33" s="16"/>
@@ -4273,522 +4148,328 @@
     </row>
     <row r="34" spans="1:47" ht="161.4" customHeight="1">
       <c r="A34" s="23"/>
-      <c r="B34" s="17">
-        <v>3</v>
-      </c>
-      <c r="C34" s="161" t="s">
-        <v>20</v>
-      </c>
-      <c r="D34" s="162"/>
-      <c r="E34" s="163"/>
-      <c r="F34" s="65">
-        <v>3</v>
-      </c>
-      <c r="G34" s="19"/>
-      <c r="H34" s="19"/>
-      <c r="I34" s="19"/>
-      <c r="J34" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="K34" s="22"/>
-      <c r="L34" s="19"/>
-      <c r="M34" s="19"/>
-      <c r="N34" s="19"/>
-      <c r="O34" s="19"/>
-      <c r="P34" s="19"/>
-      <c r="Q34" s="19"/>
-      <c r="R34" s="19"/>
-      <c r="S34" s="19"/>
-      <c r="T34" s="19"/>
-      <c r="U34" s="19"/>
-      <c r="V34" s="19"/>
-      <c r="W34" s="89" t="s">
-        <v>49</v>
-      </c>
-      <c r="X34" s="90"/>
-      <c r="Y34" s="90"/>
-      <c r="Z34" s="91"/>
-      <c r="AA34" s="20" t="s">
-        <v>45</v>
-      </c>
+      <c r="B34" s="24"/>
+      <c r="C34" s="28"/>
+      <c r="D34" s="28"/>
+      <c r="E34" s="39"/>
+      <c r="F34" s="33"/>
+      <c r="G34" s="33"/>
+      <c r="H34" s="33"/>
+      <c r="I34" s="37"/>
+      <c r="J34" s="40"/>
+      <c r="K34" s="35"/>
+      <c r="L34" s="35"/>
+      <c r="M34" s="35"/>
+      <c r="N34" s="37"/>
+      <c r="O34" s="37"/>
+      <c r="P34" s="37"/>
+      <c r="Q34" s="37"/>
+      <c r="R34" s="37"/>
+      <c r="S34" s="37"/>
+      <c r="T34" s="37"/>
+      <c r="U34" s="37"/>
+      <c r="V34" s="37"/>
+      <c r="W34" s="26"/>
+      <c r="X34" s="41"/>
+      <c r="Y34" s="41"/>
+      <c r="Z34" s="41"/>
+      <c r="AA34" s="42"/>
     </row>
     <row r="35" spans="1:47" ht="161.4" customHeight="1">
       <c r="A35" s="23"/>
-      <c r="B35" s="17">
-        <v>4</v>
+      <c r="B35" s="24"/>
+      <c r="C35" s="28"/>
+      <c r="D35" s="28"/>
+      <c r="E35" s="39"/>
+      <c r="F35" s="43"/>
+      <c r="G35" s="33" t="s">
+        <v>24</v>
       </c>
-      <c r="C35" s="167" t="s">
-        <v>21</v>
-      </c>
-      <c r="D35" s="168"/>
-      <c r="E35" s="169"/>
-      <c r="F35" s="67">
-        <v>4</v>
-      </c>
-      <c r="G35" s="19"/>
-      <c r="H35" s="19"/>
-      <c r="I35" s="19"/>
-      <c r="J35" s="19"/>
-      <c r="K35" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="L35" s="22"/>
-      <c r="M35" s="19"/>
-      <c r="N35" s="19"/>
-      <c r="O35" s="19"/>
-      <c r="P35" s="19"/>
-      <c r="Q35" s="19"/>
-      <c r="R35" s="19"/>
-      <c r="S35" s="19"/>
-      <c r="T35" s="19"/>
-      <c r="U35" s="19"/>
-      <c r="V35" s="19"/>
-      <c r="W35" s="89" t="s">
-        <v>50</v>
-      </c>
-      <c r="X35" s="90"/>
-      <c r="Y35" s="90"/>
-      <c r="Z35" s="91"/>
-      <c r="AA35" s="20" t="s">
-        <v>46</v>
-      </c>
+      <c r="H35" s="33"/>
+      <c r="I35" s="37"/>
+      <c r="J35" s="36"/>
+      <c r="K35" s="36"/>
+      <c r="L35" s="35"/>
+      <c r="W35" s="26"/>
+      <c r="X35" s="41"/>
+      <c r="Y35" s="41"/>
+      <c r="Z35" s="41"/>
+      <c r="AA35" s="42"/>
     </row>
     <row r="36" spans="1:47" ht="161.4" customHeight="1">
       <c r="A36" s="23"/>
-      <c r="B36" s="80">
-        <v>5</v>
-      </c>
-      <c r="C36" s="164" t="s">
-        <v>22</v>
-      </c>
-      <c r="D36" s="165"/>
-      <c r="E36" s="166"/>
-      <c r="F36" s="69">
-        <v>5</v>
-      </c>
-      <c r="G36" s="81"/>
-      <c r="H36" s="19"/>
-      <c r="I36" s="19"/>
-      <c r="J36" s="19"/>
-      <c r="K36" s="19"/>
-      <c r="L36" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="M36" s="22"/>
-      <c r="N36" s="19"/>
-      <c r="O36" s="19"/>
-      <c r="P36" s="19"/>
-      <c r="Q36" s="19"/>
-      <c r="R36" s="19"/>
-      <c r="S36" s="19"/>
-      <c r="T36" s="19"/>
-      <c r="U36" s="19"/>
-      <c r="V36" s="19"/>
-      <c r="W36" s="89" t="s">
-        <v>51</v>
-      </c>
-      <c r="X36" s="90"/>
-      <c r="Y36" s="90"/>
-      <c r="Z36" s="91"/>
-      <c r="AA36" s="20" t="s">
-        <v>46</v>
-      </c>
+      <c r="B36" s="24"/>
+      <c r="C36" s="28"/>
+      <c r="D36" s="28"/>
+      <c r="E36" s="39"/>
+      <c r="F36" s="33"/>
+      <c r="G36" s="33"/>
+      <c r="H36" s="33"/>
+      <c r="I36" s="37"/>
+      <c r="J36" s="36"/>
+      <c r="K36" s="36"/>
+      <c r="L36" s="44"/>
+      <c r="M36" s="35"/>
+      <c r="N36" s="35"/>
+      <c r="O36" s="35"/>
+      <c r="P36" s="35"/>
+      <c r="Q36" s="35"/>
+      <c r="R36" s="35"/>
+      <c r="S36" s="35"/>
+      <c r="T36" s="35"/>
+      <c r="U36" s="35"/>
+      <c r="V36" s="35"/>
+      <c r="W36" s="26"/>
+      <c r="X36" s="41"/>
+      <c r="Y36" s="41"/>
+      <c r="Z36" s="41"/>
+      <c r="AA36" s="42"/>
     </row>
     <row r="37" spans="1:47" ht="18.75" customHeight="1">
       <c r="A37" s="23"/>
       <c r="B37" s="24"/>
-      <c r="C37" s="25"/>
-      <c r="D37" s="25"/>
-      <c r="E37" s="25"/>
-      <c r="F37" s="25"/>
-      <c r="G37" s="26"/>
-      <c r="H37" s="26"/>
-      <c r="I37" s="26"/>
-      <c r="J37" s="26"/>
-      <c r="K37" s="26"/>
-      <c r="L37" s="26"/>
-      <c r="M37" s="26"/>
-      <c r="N37" s="26"/>
-      <c r="O37" s="26"/>
-      <c r="P37" s="26"/>
-      <c r="Q37" s="26"/>
-      <c r="R37" s="26"/>
-      <c r="S37" s="26"/>
-      <c r="T37" s="26"/>
-      <c r="U37" s="26"/>
-      <c r="V37" s="26"/>
-      <c r="W37" s="101"/>
-      <c r="X37" s="98"/>
-      <c r="Y37" s="98"/>
-      <c r="Z37" s="98"/>
-      <c r="AA37" s="27"/>
+      <c r="C37" s="176" t="s">
+        <v>25</v>
+      </c>
+      <c r="D37" s="123"/>
+      <c r="E37" s="123"/>
+      <c r="F37" s="123"/>
+      <c r="G37" s="123"/>
+      <c r="H37" s="123"/>
+      <c r="I37" s="123"/>
+      <c r="J37" s="123"/>
+      <c r="K37" s="123"/>
+      <c r="L37" s="123"/>
+      <c r="M37" s="123"/>
+      <c r="N37" s="123"/>
+      <c r="O37" s="123"/>
+      <c r="P37" s="123"/>
+      <c r="Q37" s="123"/>
+      <c r="R37" s="123"/>
+      <c r="S37" s="123"/>
+      <c r="T37" s="123"/>
+      <c r="U37" s="123"/>
+      <c r="V37" s="123"/>
+      <c r="W37" s="123"/>
+      <c r="X37" s="123"/>
+      <c r="Y37" s="123"/>
+      <c r="Z37" s="123"/>
+      <c r="AA37" s="177"/>
       <c r="AB37" s="38"/>
     </row>
-    <row r="38" spans="1:47" ht="24.75" customHeight="1">
+    <row r="38" spans="1:47" ht="24.75" customHeight="1" thickBot="1">
       <c r="A38" s="23"/>
-      <c r="B38" s="24"/>
-      <c r="C38" s="25"/>
-      <c r="D38" s="25"/>
-      <c r="E38" s="25"/>
-      <c r="F38" s="28"/>
-      <c r="G38" s="26"/>
-      <c r="H38" s="26"/>
-      <c r="I38" s="29"/>
-      <c r="J38" s="29"/>
-      <c r="K38" s="29"/>
-      <c r="L38" s="29"/>
-      <c r="M38" s="29"/>
-      <c r="N38" s="29"/>
-      <c r="O38" s="29"/>
-      <c r="P38" s="29"/>
-      <c r="Q38" s="29"/>
-      <c r="R38" s="29"/>
-      <c r="S38" s="29"/>
-      <c r="T38" s="29"/>
-      <c r="U38" s="29"/>
-      <c r="V38" s="29"/>
-      <c r="W38" s="101"/>
-      <c r="X38" s="98"/>
-      <c r="Y38" s="98"/>
-      <c r="Z38" s="98"/>
-      <c r="AA38" s="27"/>
+      <c r="B38" s="45"/>
+      <c r="C38" s="46"/>
+      <c r="D38" s="46"/>
+      <c r="E38" s="46"/>
+      <c r="F38" s="46"/>
+      <c r="G38" s="47"/>
+      <c r="H38" s="47"/>
+      <c r="I38" s="47"/>
+      <c r="J38" s="47"/>
+      <c r="K38" s="47"/>
+      <c r="L38" s="47"/>
+      <c r="M38" s="48"/>
+      <c r="N38" s="48"/>
+      <c r="O38" s="48"/>
+      <c r="P38" s="48"/>
+      <c r="Q38" s="48"/>
+      <c r="R38" s="48"/>
+      <c r="S38" s="48"/>
+      <c r="T38" s="48"/>
+      <c r="U38" s="48"/>
+      <c r="V38" s="48"/>
+      <c r="W38" s="48"/>
+      <c r="X38" s="48"/>
+      <c r="Y38" s="48"/>
+      <c r="Z38" s="48"/>
+      <c r="AA38" s="49"/>
     </row>
     <row r="39" spans="1:47" ht="24.75" customHeight="1">
       <c r="A39" s="23"/>
-      <c r="B39" s="30"/>
-      <c r="C39" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="F39" s="32"/>
-      <c r="G39" s="33" t="s">
-        <v>24</v>
-      </c>
-      <c r="H39" s="16"/>
-      <c r="I39" s="34"/>
-      <c r="J39" s="16"/>
-      <c r="W39" s="100"/>
-      <c r="X39" s="98"/>
-      <c r="Y39" s="98"/>
-      <c r="Z39" s="98"/>
-      <c r="AA39" s="23"/>
+      <c r="B39" s="25"/>
+      <c r="C39" s="25"/>
+      <c r="D39" s="25"/>
+      <c r="E39" s="25"/>
+      <c r="F39" s="25"/>
+      <c r="G39" s="26"/>
+      <c r="H39" s="26"/>
+      <c r="I39" s="26"/>
+      <c r="J39" s="26"/>
+      <c r="K39" s="26"/>
+      <c r="L39" s="26"/>
+      <c r="M39" s="41"/>
+      <c r="N39" s="41"/>
+      <c r="O39" s="41"/>
+      <c r="P39" s="41"/>
+      <c r="Q39" s="41"/>
+      <c r="R39" s="41"/>
+      <c r="S39" s="41"/>
+      <c r="T39" s="41"/>
+      <c r="U39" s="41"/>
+      <c r="V39" s="41"/>
+      <c r="W39" s="41"/>
+      <c r="X39" s="41"/>
+      <c r="Y39" s="41"/>
+      <c r="Z39" s="41"/>
+      <c r="AA39" s="41"/>
     </row>
     <row r="40" spans="1:47" ht="24.75" customHeight="1">
       <c r="A40" s="23"/>
-      <c r="B40" s="24"/>
-      <c r="C40" s="28"/>
-      <c r="F40" s="16"/>
-      <c r="I40" s="35"/>
-      <c r="J40" s="36"/>
-      <c r="K40" s="36"/>
-      <c r="L40" s="35"/>
-      <c r="M40" s="35"/>
-      <c r="N40" s="37"/>
-      <c r="O40" s="37"/>
-      <c r="P40" s="37"/>
-      <c r="Q40" s="37"/>
-      <c r="R40" s="37"/>
-      <c r="S40" s="37"/>
-      <c r="T40" s="37"/>
-      <c r="U40" s="37"/>
-      <c r="V40" s="37"/>
-      <c r="W40" s="16"/>
-      <c r="AA40" s="23"/>
+      <c r="B40" s="1"/>
     </row>
     <row r="41" spans="1:47" ht="39.75" customHeight="1">
       <c r="A41" s="23"/>
-      <c r="B41" s="24"/>
-      <c r="C41" s="28"/>
-      <c r="D41" s="28"/>
-      <c r="E41" s="39"/>
-      <c r="F41" s="33"/>
-      <c r="G41" s="33"/>
-      <c r="H41" s="33"/>
-      <c r="I41" s="37"/>
-      <c r="J41" s="40"/>
-      <c r="K41" s="35"/>
-      <c r="L41" s="35"/>
-      <c r="M41" s="35"/>
-      <c r="N41" s="37"/>
-      <c r="O41" s="37"/>
-      <c r="P41" s="37"/>
-      <c r="Q41" s="37"/>
-      <c r="R41" s="37"/>
-      <c r="S41" s="37"/>
-      <c r="T41" s="37"/>
-      <c r="U41" s="37"/>
-      <c r="V41" s="37"/>
-      <c r="W41" s="26"/>
-      <c r="X41" s="41"/>
-      <c r="Y41" s="41"/>
-      <c r="Z41" s="41"/>
-      <c r="AA41" s="42"/>
+      <c r="B41" s="1"/>
     </row>
     <row r="42" spans="1:47" ht="11.25" customHeight="1">
       <c r="A42" s="23"/>
-      <c r="B42" s="24"/>
-      <c r="C42" s="28"/>
-      <c r="D42" s="28"/>
-      <c r="E42" s="39"/>
-      <c r="F42" s="43"/>
-      <c r="G42" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="H42" s="33"/>
-      <c r="I42" s="37"/>
-      <c r="J42" s="36"/>
-      <c r="K42" s="36"/>
-      <c r="L42" s="35"/>
-      <c r="W42" s="26"/>
-      <c r="X42" s="41"/>
-      <c r="Y42" s="41"/>
-      <c r="Z42" s="41"/>
-      <c r="AA42" s="42"/>
+      <c r="B42" s="1"/>
+      <c r="D42" s="51"/>
+      <c r="E42" s="51"/>
+      <c r="F42" s="51"/>
     </row>
     <row r="43" spans="1:47" ht="11.25" customHeight="1">
       <c r="A43" s="50"/>
-      <c r="B43" s="24"/>
-      <c r="C43" s="28"/>
-      <c r="D43" s="28"/>
-      <c r="E43" s="39"/>
-      <c r="F43" s="33"/>
-      <c r="G43" s="33"/>
-      <c r="H43" s="33"/>
-      <c r="I43" s="37"/>
-      <c r="J43" s="36"/>
-      <c r="K43" s="36"/>
-      <c r="L43" s="44"/>
-      <c r="M43" s="35"/>
-      <c r="N43" s="35"/>
-      <c r="O43" s="35"/>
-      <c r="P43" s="35"/>
-      <c r="Q43" s="35"/>
-      <c r="R43" s="35"/>
-      <c r="S43" s="35"/>
-      <c r="T43" s="35"/>
-      <c r="U43" s="35"/>
-      <c r="V43" s="35"/>
-      <c r="W43" s="26"/>
-      <c r="X43" s="41"/>
-      <c r="Y43" s="41"/>
-      <c r="Z43" s="41"/>
-      <c r="AA43" s="42"/>
+      <c r="B43" s="1"/>
+      <c r="C43" s="50"/>
     </row>
     <row r="44" spans="1:47" ht="12" customHeight="1">
-      <c r="B44" s="24"/>
-      <c r="C44" s="97" t="s">
+      <c r="B44" s="171" t="s">
         <v>26</v>
       </c>
-      <c r="D44" s="98"/>
-      <c r="E44" s="98"/>
-      <c r="F44" s="98"/>
-      <c r="G44" s="98"/>
-      <c r="H44" s="98"/>
-      <c r="I44" s="98"/>
-      <c r="J44" s="98"/>
-      <c r="K44" s="98"/>
-      <c r="L44" s="98"/>
-      <c r="M44" s="98"/>
-      <c r="N44" s="98"/>
-      <c r="O44" s="98"/>
-      <c r="P44" s="98"/>
-      <c r="Q44" s="98"/>
-      <c r="R44" s="98"/>
-      <c r="S44" s="98"/>
-      <c r="T44" s="98"/>
-      <c r="U44" s="98"/>
-      <c r="V44" s="98"/>
-      <c r="W44" s="98"/>
-      <c r="X44" s="98"/>
-      <c r="Y44" s="98"/>
-      <c r="Z44" s="98"/>
-      <c r="AA44" s="99"/>
-    </row>
-    <row r="45" spans="1:47" ht="12" customHeight="1" thickBot="1">
-      <c r="B45" s="45"/>
-      <c r="C45" s="46"/>
-      <c r="D45" s="46"/>
-      <c r="E45" s="46"/>
-      <c r="F45" s="46"/>
-      <c r="G45" s="47"/>
-      <c r="H45" s="47"/>
-      <c r="I45" s="47"/>
-      <c r="J45" s="47"/>
-      <c r="K45" s="47"/>
-      <c r="L45" s="47"/>
-      <c r="M45" s="48"/>
-      <c r="N45" s="48"/>
-      <c r="O45" s="48"/>
-      <c r="P45" s="48"/>
-      <c r="Q45" s="48"/>
-      <c r="R45" s="48"/>
-      <c r="S45" s="48"/>
-      <c r="T45" s="48"/>
-      <c r="U45" s="48"/>
-      <c r="V45" s="48"/>
-      <c r="W45" s="48"/>
-      <c r="X45" s="48"/>
-      <c r="Y45" s="48"/>
-      <c r="Z45" s="48"/>
-      <c r="AA45" s="49"/>
-    </row>
+      <c r="C44" s="164"/>
+      <c r="D44" s="164"/>
+      <c r="E44" s="164"/>
+      <c r="F44" s="164"/>
+      <c r="G44" s="164"/>
+      <c r="J44" s="16"/>
+      <c r="K44" s="52" t="s">
+        <v>27</v>
+      </c>
+      <c r="L44" s="53"/>
+      <c r="M44" s="54"/>
+      <c r="N44" s="16"/>
+      <c r="O44" s="16"/>
+      <c r="P44" s="16"/>
+      <c r="Q44" s="16"/>
+      <c r="R44" s="16"/>
+      <c r="S44" s="16"/>
+      <c r="T44" s="16"/>
+      <c r="U44" s="16"/>
+      <c r="V44" s="16"/>
+    </row>
+    <row r="45" spans="1:47" ht="12" customHeight="1"/>
     <row r="46" spans="1:47" ht="12" customHeight="1">
-      <c r="B46" s="25"/>
-      <c r="C46" s="25"/>
-      <c r="D46" s="25"/>
-      <c r="E46" s="25"/>
-      <c r="F46" s="25"/>
-      <c r="G46" s="26"/>
-      <c r="H46" s="26"/>
-      <c r="I46" s="26"/>
-      <c r="J46" s="26"/>
-      <c r="K46" s="26"/>
-      <c r="L46" s="26"/>
-      <c r="M46" s="41"/>
-      <c r="N46" s="41"/>
-      <c r="O46" s="41"/>
-      <c r="P46" s="41"/>
-      <c r="Q46" s="41"/>
-      <c r="R46" s="41"/>
-      <c r="S46" s="41"/>
-      <c r="T46" s="41"/>
-      <c r="U46" s="41"/>
-      <c r="V46" s="41"/>
-      <c r="W46" s="41"/>
-      <c r="X46" s="41"/>
-      <c r="Y46" s="41"/>
-      <c r="Z46" s="41"/>
-      <c r="AA46" s="41"/>
+      <c r="F46" s="55"/>
+      <c r="G46" s="55"/>
     </row>
     <row r="47" spans="1:47" ht="12" customHeight="1">
       <c r="B47" s="1"/>
+      <c r="C47" s="50" t="s">
+        <v>28</v>
+      </c>
+      <c r="D47" s="56"/>
+      <c r="E47" s="56"/>
+      <c r="F47" s="172"/>
+      <c r="G47" s="167"/>
+      <c r="H47" s="167"/>
+      <c r="J47" s="57"/>
+      <c r="K47" s="50" t="s">
+        <v>29</v>
+      </c>
+      <c r="N47" s="172"/>
+      <c r="O47" s="172"/>
+      <c r="P47" s="172"/>
+      <c r="Q47" s="172"/>
+      <c r="R47" s="172"/>
+      <c r="S47" s="172"/>
+      <c r="T47" s="172"/>
+      <c r="U47" s="172"/>
+      <c r="V47" s="172"/>
     </row>
     <row r="48" spans="1:47" ht="15" customHeight="1">
-      <c r="B48" s="1"/>
+      <c r="F48" s="55"/>
+      <c r="G48" s="55"/>
     </row>
     <row r="49" spans="1:22" ht="15" customHeight="1">
       <c r="B49" s="1"/>
-      <c r="D49" s="51"/>
-      <c r="E49" s="51"/>
-      <c r="F49" s="51"/>
+      <c r="G49" s="16"/>
+      <c r="H49" s="33"/>
     </row>
     <row r="50" spans="1:22" ht="15" customHeight="1">
       <c r="B50" s="1"/>
-      <c r="C50" s="50"/>
+      <c r="G50" s="33"/>
+      <c r="I50" s="33"/>
+      <c r="K50" s="41"/>
+      <c r="L50" s="33"/>
+      <c r="M50" s="33"/>
+      <c r="N50" s="33"/>
+      <c r="O50" s="33"/>
+      <c r="P50" s="33"/>
+      <c r="Q50" s="33"/>
+      <c r="R50" s="33"/>
+      <c r="S50" s="33"/>
+      <c r="T50" s="33"/>
+      <c r="U50" s="33"/>
+      <c r="V50" s="33"/>
     </row>
     <row r="51" spans="1:22" ht="15" customHeight="1">
-      <c r="B51" s="92" t="s">
-        <v>27</v>
-      </c>
-      <c r="C51" s="93"/>
-      <c r="D51" s="93"/>
-      <c r="E51" s="93"/>
-      <c r="F51" s="93"/>
-      <c r="G51" s="93"/>
-      <c r="J51" s="16"/>
-      <c r="K51" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="L51" s="53"/>
-      <c r="M51" s="54"/>
-      <c r="N51" s="16"/>
-      <c r="O51" s="16"/>
-      <c r="P51" s="16"/>
-      <c r="Q51" s="16"/>
-      <c r="R51" s="16"/>
-      <c r="S51" s="16"/>
-      <c r="T51" s="16"/>
-      <c r="U51" s="16"/>
-      <c r="V51" s="16"/>
-    </row>
-    <row r="52" spans="1:22" ht="12" customHeight="1"/>
+      <c r="B51" s="1"/>
+      <c r="I51" s="33"/>
+      <c r="L51" s="33"/>
+      <c r="M51" s="33"/>
+      <c r="N51" s="33"/>
+      <c r="O51" s="33"/>
+      <c r="P51" s="33"/>
+      <c r="Q51" s="33"/>
+      <c r="R51" s="33"/>
+      <c r="S51" s="33"/>
+      <c r="T51" s="33"/>
+      <c r="U51" s="33"/>
+      <c r="V51" s="33"/>
+    </row>
+    <row r="52" spans="1:22" ht="12" customHeight="1">
+      <c r="B52" s="1"/>
+      <c r="G52" s="33"/>
+      <c r="I52" s="33"/>
+      <c r="L52" s="33"/>
+      <c r="M52" s="33"/>
+      <c r="N52" s="33"/>
+      <c r="O52" s="33"/>
+      <c r="P52" s="33"/>
+      <c r="Q52" s="33"/>
+      <c r="R52" s="33"/>
+      <c r="S52" s="33"/>
+      <c r="T52" s="33"/>
+      <c r="U52" s="33"/>
+      <c r="V52" s="33"/>
+    </row>
     <row r="53" spans="1:22" ht="12" customHeight="1">
-      <c r="F53" s="55"/>
-      <c r="G53" s="55"/>
+      <c r="B53" s="1"/>
     </row>
     <row r="54" spans="1:22" ht="12" customHeight="1">
       <c r="B54" s="1"/>
-      <c r="C54" s="50" t="s">
-        <v>29</v>
-      </c>
-      <c r="D54" s="56"/>
-      <c r="E54" s="56"/>
-      <c r="F54" s="94"/>
-      <c r="G54" s="95"/>
-      <c r="H54" s="95"/>
-      <c r="J54" s="57"/>
-      <c r="K54" s="50" t="s">
-        <v>30</v>
-      </c>
-      <c r="N54" s="94"/>
-      <c r="O54" s="94"/>
-      <c r="P54" s="94"/>
-      <c r="Q54" s="94"/>
-      <c r="R54" s="94"/>
-      <c r="S54" s="94"/>
-      <c r="T54" s="94"/>
-      <c r="U54" s="94"/>
-      <c r="V54" s="94"/>
     </row>
     <row r="55" spans="1:22" ht="12" customHeight="1">
-      <c r="F55" s="55"/>
-      <c r="G55" s="55"/>
+      <c r="B55" s="1"/>
     </row>
     <row r="56" spans="1:22" ht="12" customHeight="1">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
-      <c r="G56" s="16"/>
-      <c r="H56" s="33"/>
     </row>
     <row r="57" spans="1:22" ht="12" customHeight="1">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
-      <c r="G57" s="33"/>
-      <c r="I57" s="33"/>
-      <c r="K57" s="41"/>
-      <c r="L57" s="33"/>
-      <c r="M57" s="33"/>
-      <c r="N57" s="33"/>
-      <c r="O57" s="33"/>
-      <c r="P57" s="33"/>
-      <c r="Q57" s="33"/>
-      <c r="R57" s="33"/>
-      <c r="S57" s="33"/>
-      <c r="T57" s="33"/>
-      <c r="U57" s="33"/>
-      <c r="V57" s="33"/>
     </row>
     <row r="58" spans="1:22" ht="12" customHeight="1">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
-      <c r="I58" s="33"/>
-      <c r="L58" s="33"/>
-      <c r="M58" s="33"/>
-      <c r="N58" s="33"/>
-      <c r="O58" s="33"/>
-      <c r="P58" s="33"/>
-      <c r="Q58" s="33"/>
-      <c r="R58" s="33"/>
-      <c r="S58" s="33"/>
-      <c r="T58" s="33"/>
-      <c r="U58" s="33"/>
-      <c r="V58" s="33"/>
     </row>
     <row r="59" spans="1:22" ht="12" customHeight="1">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
-      <c r="G59" s="33"/>
-      <c r="I59" s="33"/>
-      <c r="L59" s="33"/>
-      <c r="M59" s="33"/>
-      <c r="N59" s="33"/>
-      <c r="O59" s="33"/>
-      <c r="P59" s="33"/>
-      <c r="Q59" s="33"/>
-      <c r="R59" s="33"/>
-      <c r="S59" s="33"/>
-      <c r="T59" s="33"/>
-      <c r="U59" s="33"/>
-      <c r="V59" s="33"/>
     </row>
     <row r="60" spans="1:22" ht="12" customHeight="1">
       <c r="A60" s="1"/>
@@ -5545,22 +5226,147 @@
     <row r="248" spans="1:47" ht="12" customHeight="1">
       <c r="A248" s="1"/>
       <c r="B248" s="1"/>
+      <c r="C248" s="1"/>
+      <c r="D248" s="1"/>
+      <c r="E248" s="1"/>
+      <c r="F248" s="1"/>
+      <c r="G248" s="1"/>
+      <c r="H248" s="1"/>
+      <c r="I248" s="1"/>
+      <c r="J248" s="1"/>
+      <c r="K248" s="1"/>
+      <c r="L248" s="1"/>
+      <c r="M248" s="1"/>
+      <c r="N248" s="1"/>
+      <c r="O248" s="1"/>
+      <c r="P248" s="1"/>
+      <c r="Q248" s="1"/>
+      <c r="R248" s="1"/>
+      <c r="S248" s="1"/>
+      <c r="T248" s="1"/>
+      <c r="U248" s="1"/>
+      <c r="V248" s="1"/>
+      <c r="W248" s="1"/>
+      <c r="X248" s="1"/>
+      <c r="Y248" s="1"/>
+      <c r="Z248" s="1"/>
+      <c r="AA248" s="1"/>
     </row>
     <row r="249" spans="1:47" ht="12" customHeight="1">
       <c r="A249" s="1"/>
       <c r="B249" s="1"/>
+      <c r="C249" s="1"/>
+      <c r="D249" s="1"/>
+      <c r="E249" s="1"/>
+      <c r="F249" s="1"/>
+      <c r="G249" s="1"/>
+      <c r="H249" s="1"/>
+      <c r="I249" s="1"/>
+      <c r="J249" s="1"/>
+      <c r="K249" s="1"/>
+      <c r="L249" s="1"/>
+      <c r="M249" s="1"/>
+      <c r="N249" s="1"/>
+      <c r="O249" s="1"/>
+      <c r="P249" s="1"/>
+      <c r="Q249" s="1"/>
+      <c r="R249" s="1"/>
+      <c r="S249" s="1"/>
+      <c r="T249" s="1"/>
+      <c r="U249" s="1"/>
+      <c r="V249" s="1"/>
+      <c r="W249" s="1"/>
+      <c r="X249" s="1"/>
+      <c r="Y249" s="1"/>
+      <c r="Z249" s="1"/>
+      <c r="AA249" s="1"/>
     </row>
     <row r="250" spans="1:47" ht="12" customHeight="1">
       <c r="A250" s="1"/>
       <c r="B250" s="1"/>
+      <c r="C250" s="1"/>
+      <c r="D250" s="1"/>
+      <c r="E250" s="1"/>
+      <c r="F250" s="1"/>
+      <c r="G250" s="1"/>
+      <c r="H250" s="1"/>
+      <c r="I250" s="1"/>
+      <c r="J250" s="1"/>
+      <c r="K250" s="1"/>
+      <c r="L250" s="1"/>
+      <c r="M250" s="1"/>
+      <c r="N250" s="1"/>
+      <c r="O250" s="1"/>
+      <c r="P250" s="1"/>
+      <c r="Q250" s="1"/>
+      <c r="R250" s="1"/>
+      <c r="S250" s="1"/>
+      <c r="T250" s="1"/>
+      <c r="U250" s="1"/>
+      <c r="V250" s="1"/>
+      <c r="W250" s="1"/>
+      <c r="X250" s="1"/>
+      <c r="Y250" s="1"/>
+      <c r="Z250" s="1"/>
+      <c r="AA250" s="1"/>
     </row>
     <row r="251" spans="1:47" ht="12" customHeight="1">
       <c r="A251" s="1"/>
       <c r="B251" s="1"/>
+      <c r="C251" s="1"/>
+      <c r="D251" s="1"/>
+      <c r="E251" s="1"/>
+      <c r="F251" s="1"/>
+      <c r="G251" s="1"/>
+      <c r="H251" s="1"/>
+      <c r="I251" s="1"/>
+      <c r="J251" s="1"/>
+      <c r="K251" s="1"/>
+      <c r="L251" s="1"/>
+      <c r="M251" s="1"/>
+      <c r="N251" s="1"/>
+      <c r="O251" s="1"/>
+      <c r="P251" s="1"/>
+      <c r="Q251" s="1"/>
+      <c r="R251" s="1"/>
+      <c r="S251" s="1"/>
+      <c r="T251" s="1"/>
+      <c r="U251" s="1"/>
+      <c r="V251" s="1"/>
+      <c r="W251" s="1"/>
+      <c r="X251" s="1"/>
+      <c r="Y251" s="1"/>
+      <c r="Z251" s="1"/>
+      <c r="AA251" s="1"/>
     </row>
     <row r="252" spans="1:47" ht="12.75" customHeight="1">
       <c r="A252" s="1"/>
       <c r="B252" s="1"/>
+      <c r="C252" s="1"/>
+      <c r="D252" s="1"/>
+      <c r="E252" s="1"/>
+      <c r="F252" s="1"/>
+      <c r="G252" s="1"/>
+      <c r="H252" s="1"/>
+      <c r="I252" s="1"/>
+      <c r="J252" s="1"/>
+      <c r="K252" s="1"/>
+      <c r="L252" s="1"/>
+      <c r="M252" s="1"/>
+      <c r="N252" s="1"/>
+      <c r="O252" s="1"/>
+      <c r="P252" s="1"/>
+      <c r="Q252" s="1"/>
+      <c r="R252" s="1"/>
+      <c r="S252" s="1"/>
+      <c r="T252" s="1"/>
+      <c r="U252" s="1"/>
+      <c r="V252" s="1"/>
+      <c r="W252" s="1"/>
+      <c r="X252" s="1"/>
+      <c r="Y252" s="1"/>
+      <c r="Z252" s="1"/>
+      <c r="AA252" s="1"/>
       <c r="AB252" s="1"/>
       <c r="AC252" s="1"/>
       <c r="AD252" s="1"/>
@@ -5585,6 +5391,31 @@
     <row r="253" spans="1:47" ht="12.75" customHeight="1">
       <c r="A253" s="1"/>
       <c r="B253" s="1"/>
+      <c r="C253" s="1"/>
+      <c r="D253" s="1"/>
+      <c r="E253" s="1"/>
+      <c r="F253" s="1"/>
+      <c r="G253" s="1"/>
+      <c r="H253" s="1"/>
+      <c r="I253" s="1"/>
+      <c r="J253" s="1"/>
+      <c r="K253" s="1"/>
+      <c r="L253" s="1"/>
+      <c r="M253" s="1"/>
+      <c r="N253" s="1"/>
+      <c r="O253" s="1"/>
+      <c r="P253" s="1"/>
+      <c r="Q253" s="1"/>
+      <c r="R253" s="1"/>
+      <c r="S253" s="1"/>
+      <c r="T253" s="1"/>
+      <c r="U253" s="1"/>
+      <c r="V253" s="1"/>
+      <c r="W253" s="1"/>
+      <c r="X253" s="1"/>
+      <c r="Y253" s="1"/>
+      <c r="Z253" s="1"/>
+      <c r="AA253" s="1"/>
       <c r="AB253" s="1"/>
       <c r="AC253" s="1"/>
       <c r="AD253" s="1"/>
@@ -5609,6 +5440,31 @@
     <row r="254" spans="1:47" ht="12.75" customHeight="1">
       <c r="A254" s="1"/>
       <c r="B254" s="1"/>
+      <c r="C254" s="1"/>
+      <c r="D254" s="1"/>
+      <c r="E254" s="1"/>
+      <c r="F254" s="1"/>
+      <c r="G254" s="1"/>
+      <c r="H254" s="1"/>
+      <c r="I254" s="1"/>
+      <c r="J254" s="1"/>
+      <c r="K254" s="1"/>
+      <c r="L254" s="1"/>
+      <c r="M254" s="1"/>
+      <c r="N254" s="1"/>
+      <c r="O254" s="1"/>
+      <c r="P254" s="1"/>
+      <c r="Q254" s="1"/>
+      <c r="R254" s="1"/>
+      <c r="S254" s="1"/>
+      <c r="T254" s="1"/>
+      <c r="U254" s="1"/>
+      <c r="V254" s="1"/>
+      <c r="W254" s="1"/>
+      <c r="X254" s="1"/>
+      <c r="Y254" s="1"/>
+      <c r="Z254" s="1"/>
+      <c r="AA254" s="1"/>
       <c r="AB254" s="1"/>
       <c r="AC254" s="1"/>
       <c r="AD254" s="1"/>
@@ -33563,31 +33419,6 @@
     <row r="825" spans="1:47" ht="12.75" customHeight="1">
       <c r="A825" s="1"/>
       <c r="B825" s="1"/>
-      <c r="C825" s="1"/>
-      <c r="D825" s="1"/>
-      <c r="E825" s="1"/>
-      <c r="F825" s="1"/>
-      <c r="G825" s="1"/>
-      <c r="H825" s="1"/>
-      <c r="I825" s="1"/>
-      <c r="J825" s="1"/>
-      <c r="K825" s="1"/>
-      <c r="L825" s="1"/>
-      <c r="M825" s="1"/>
-      <c r="N825" s="1"/>
-      <c r="O825" s="1"/>
-      <c r="P825" s="1"/>
-      <c r="Q825" s="1"/>
-      <c r="R825" s="1"/>
-      <c r="S825" s="1"/>
-      <c r="T825" s="1"/>
-      <c r="U825" s="1"/>
-      <c r="V825" s="1"/>
-      <c r="W825" s="1"/>
-      <c r="X825" s="1"/>
-      <c r="Y825" s="1"/>
-      <c r="Z825" s="1"/>
-      <c r="AA825" s="1"/>
       <c r="AB825" s="1"/>
       <c r="AC825" s="1"/>
       <c r="AD825" s="1"/>
@@ -33612,31 +33443,6 @@
     <row r="826" spans="1:47" ht="12.75" customHeight="1">
       <c r="A826" s="1"/>
       <c r="B826" s="1"/>
-      <c r="C826" s="1"/>
-      <c r="D826" s="1"/>
-      <c r="E826" s="1"/>
-      <c r="F826" s="1"/>
-      <c r="G826" s="1"/>
-      <c r="H826" s="1"/>
-      <c r="I826" s="1"/>
-      <c r="J826" s="1"/>
-      <c r="K826" s="1"/>
-      <c r="L826" s="1"/>
-      <c r="M826" s="1"/>
-      <c r="N826" s="1"/>
-      <c r="O826" s="1"/>
-      <c r="P826" s="1"/>
-      <c r="Q826" s="1"/>
-      <c r="R826" s="1"/>
-      <c r="S826" s="1"/>
-      <c r="T826" s="1"/>
-      <c r="U826" s="1"/>
-      <c r="V826" s="1"/>
-      <c r="W826" s="1"/>
-      <c r="X826" s="1"/>
-      <c r="Y826" s="1"/>
-      <c r="Z826" s="1"/>
-      <c r="AA826" s="1"/>
       <c r="AB826" s="1"/>
       <c r="AC826" s="1"/>
       <c r="AD826" s="1"/>
@@ -33661,31 +33467,6 @@
     <row r="827" spans="1:47" ht="12.75" customHeight="1">
       <c r="A827" s="1"/>
       <c r="B827" s="1"/>
-      <c r="C827" s="1"/>
-      <c r="D827" s="1"/>
-      <c r="E827" s="1"/>
-      <c r="F827" s="1"/>
-      <c r="G827" s="1"/>
-      <c r="H827" s="1"/>
-      <c r="I827" s="1"/>
-      <c r="J827" s="1"/>
-      <c r="K827" s="1"/>
-      <c r="L827" s="1"/>
-      <c r="M827" s="1"/>
-      <c r="N827" s="1"/>
-      <c r="O827" s="1"/>
-      <c r="P827" s="1"/>
-      <c r="Q827" s="1"/>
-      <c r="R827" s="1"/>
-      <c r="S827" s="1"/>
-      <c r="T827" s="1"/>
-      <c r="U827" s="1"/>
-      <c r="V827" s="1"/>
-      <c r="W827" s="1"/>
-      <c r="X827" s="1"/>
-      <c r="Y827" s="1"/>
-      <c r="Z827" s="1"/>
-      <c r="AA827" s="1"/>
       <c r="AB827" s="1"/>
       <c r="AC827" s="1"/>
       <c r="AD827" s="1"/>
@@ -33710,31 +33491,6 @@
     <row r="828" spans="1:47" ht="12.75" customHeight="1">
       <c r="A828" s="1"/>
       <c r="B828" s="1"/>
-      <c r="C828" s="1"/>
-      <c r="D828" s="1"/>
-      <c r="E828" s="1"/>
-      <c r="F828" s="1"/>
-      <c r="G828" s="1"/>
-      <c r="H828" s="1"/>
-      <c r="I828" s="1"/>
-      <c r="J828" s="1"/>
-      <c r="K828" s="1"/>
-      <c r="L828" s="1"/>
-      <c r="M828" s="1"/>
-      <c r="N828" s="1"/>
-      <c r="O828" s="1"/>
-      <c r="P828" s="1"/>
-      <c r="Q828" s="1"/>
-      <c r="R828" s="1"/>
-      <c r="S828" s="1"/>
-      <c r="T828" s="1"/>
-      <c r="U828" s="1"/>
-      <c r="V828" s="1"/>
-      <c r="W828" s="1"/>
-      <c r="X828" s="1"/>
-      <c r="Y828" s="1"/>
-      <c r="Z828" s="1"/>
-      <c r="AA828" s="1"/>
       <c r="AB828" s="1"/>
       <c r="AC828" s="1"/>
       <c r="AD828" s="1"/>
@@ -33758,87 +33514,12 @@
     </row>
     <row r="829" spans="1:47" ht="12.75" customHeight="1">
       <c r="B829" s="1"/>
-      <c r="C829" s="1"/>
-      <c r="D829" s="1"/>
-      <c r="E829" s="1"/>
-      <c r="F829" s="1"/>
-      <c r="G829" s="1"/>
-      <c r="H829" s="1"/>
-      <c r="I829" s="1"/>
-      <c r="J829" s="1"/>
-      <c r="K829" s="1"/>
-      <c r="L829" s="1"/>
-      <c r="M829" s="1"/>
-      <c r="N829" s="1"/>
-      <c r="O829" s="1"/>
-      <c r="P829" s="1"/>
-      <c r="Q829" s="1"/>
-      <c r="R829" s="1"/>
-      <c r="S829" s="1"/>
-      <c r="T829" s="1"/>
-      <c r="U829" s="1"/>
-      <c r="V829" s="1"/>
-      <c r="W829" s="1"/>
-      <c r="X829" s="1"/>
-      <c r="Y829" s="1"/>
-      <c r="Z829" s="1"/>
-      <c r="AA829" s="1"/>
     </row>
     <row r="830" spans="1:47" ht="12.75" customHeight="1">
       <c r="B830" s="1"/>
-      <c r="C830" s="1"/>
-      <c r="D830" s="1"/>
-      <c r="E830" s="1"/>
-      <c r="F830" s="1"/>
-      <c r="G830" s="1"/>
-      <c r="H830" s="1"/>
-      <c r="I830" s="1"/>
-      <c r="J830" s="1"/>
-      <c r="K830" s="1"/>
-      <c r="L830" s="1"/>
-      <c r="M830" s="1"/>
-      <c r="N830" s="1"/>
-      <c r="O830" s="1"/>
-      <c r="P830" s="1"/>
-      <c r="Q830" s="1"/>
-      <c r="R830" s="1"/>
-      <c r="S830" s="1"/>
-      <c r="T830" s="1"/>
-      <c r="U830" s="1"/>
-      <c r="V830" s="1"/>
-      <c r="W830" s="1"/>
-      <c r="X830" s="1"/>
-      <c r="Y830" s="1"/>
-      <c r="Z830" s="1"/>
-      <c r="AA830" s="1"/>
     </row>
     <row r="831" spans="1:47" ht="12.75" customHeight="1">
       <c r="B831" s="1"/>
-      <c r="C831" s="1"/>
-      <c r="D831" s="1"/>
-      <c r="E831" s="1"/>
-      <c r="F831" s="1"/>
-      <c r="G831" s="1"/>
-      <c r="H831" s="1"/>
-      <c r="I831" s="1"/>
-      <c r="J831" s="1"/>
-      <c r="K831" s="1"/>
-      <c r="L831" s="1"/>
-      <c r="M831" s="1"/>
-      <c r="N831" s="1"/>
-      <c r="O831" s="1"/>
-      <c r="P831" s="1"/>
-      <c r="Q831" s="1"/>
-      <c r="R831" s="1"/>
-      <c r="S831" s="1"/>
-      <c r="T831" s="1"/>
-      <c r="U831" s="1"/>
-      <c r="V831" s="1"/>
-      <c r="W831" s="1"/>
-      <c r="X831" s="1"/>
-      <c r="Y831" s="1"/>
-      <c r="Z831" s="1"/>
-      <c r="AA831" s="1"/>
     </row>
     <row r="832" spans="1:47" ht="12.75" customHeight="1">
       <c r="B832" s="1"/>
@@ -34320,54 +34001,40 @@
     <row r="991" spans="2:2" ht="12.75" customHeight="1">
       <c r="B991" s="1"/>
     </row>
-    <row r="992" spans="2:2" ht="12.75" customHeight="1">
-      <c r="B992" s="1"/>
-    </row>
-    <row r="993" spans="2:2" ht="12.75" customHeight="1">
-      <c r="B993" s="1"/>
-    </row>
-    <row r="994" spans="2:2" ht="12.75" customHeight="1">
-      <c r="B994" s="1"/>
-    </row>
-    <row r="995" spans="2:2" ht="12.75" customHeight="1">
-      <c r="B995" s="1"/>
-    </row>
-    <row r="996" spans="2:2" ht="15" customHeight="1">
-      <c r="B996" s="1"/>
-    </row>
-    <row r="997" spans="2:2" ht="15" customHeight="1">
-      <c r="B997" s="1"/>
-    </row>
-    <row r="998" spans="2:2" ht="15" customHeight="1">
-      <c r="B998" s="1"/>
-    </row>
+    <row r="992" spans="2:2" ht="12.75" customHeight="1"/>
+    <row r="993" ht="12.75" customHeight="1"/>
+    <row r="994" ht="12.75" customHeight="1"/>
+    <row r="995" ht="12.75" customHeight="1"/>
   </sheetData>
-  <mergeCells count="71">
+  <mergeCells count="57">
+    <mergeCell ref="B44:G44"/>
+    <mergeCell ref="F47:H47"/>
     <mergeCell ref="C28:E28"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="C37:AA37"/>
+    <mergeCell ref="N47:V47"/>
     <mergeCell ref="W28:Z28"/>
-    <mergeCell ref="C29:E29"/>
     <mergeCell ref="W29:Z29"/>
-    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="W32:Z32"/>
     <mergeCell ref="W30:Z30"/>
-    <mergeCell ref="C31:E31"/>
     <mergeCell ref="W31:Z31"/>
-    <mergeCell ref="C32:E32"/>
-    <mergeCell ref="W32:Z32"/>
-    <mergeCell ref="C33:E33"/>
-    <mergeCell ref="W33:Z33"/>
-    <mergeCell ref="C25:E25"/>
-    <mergeCell ref="W25:Z25"/>
-    <mergeCell ref="C26:E26"/>
-    <mergeCell ref="W26:Z26"/>
-    <mergeCell ref="C27:E27"/>
-    <mergeCell ref="W27:Z27"/>
-    <mergeCell ref="G21:J21"/>
-    <mergeCell ref="K19:N20"/>
-    <mergeCell ref="K21:N21"/>
-    <mergeCell ref="O21:R21"/>
-    <mergeCell ref="S19:V20"/>
-    <mergeCell ref="S21:V21"/>
-    <mergeCell ref="G19:J20"/>
+    <mergeCell ref="B2:F3"/>
+    <mergeCell ref="G2:V2"/>
+    <mergeCell ref="W2:X2"/>
+    <mergeCell ref="Y2:AA2"/>
+    <mergeCell ref="G3:V3"/>
+    <mergeCell ref="W3:X3"/>
+    <mergeCell ref="Y3:AA3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="G4:V4"/>
+    <mergeCell ref="W4:X4"/>
+    <mergeCell ref="Y4:AA4"/>
+    <mergeCell ref="B6:AA6"/>
+    <mergeCell ref="B7:AA7"/>
+    <mergeCell ref="B8:AA8"/>
+    <mergeCell ref="B10:AA10"/>
+    <mergeCell ref="B11:AA11"/>
+    <mergeCell ref="B12:AA12"/>
     <mergeCell ref="C23:E23"/>
     <mergeCell ref="W23:Z23"/>
     <mergeCell ref="C24:E24"/>
@@ -34384,38 +34051,21 @@
     <mergeCell ref="AA19:AA22"/>
     <mergeCell ref="O19:R20"/>
     <mergeCell ref="W22:Z22"/>
-    <mergeCell ref="B7:AA7"/>
-    <mergeCell ref="B8:AA8"/>
-    <mergeCell ref="B10:AA10"/>
-    <mergeCell ref="B11:AA11"/>
-    <mergeCell ref="B12:AA12"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="G4:V4"/>
-    <mergeCell ref="W4:X4"/>
-    <mergeCell ref="Y4:AA4"/>
-    <mergeCell ref="B6:AA6"/>
-    <mergeCell ref="B2:F3"/>
-    <mergeCell ref="G2:V2"/>
-    <mergeCell ref="W2:X2"/>
-    <mergeCell ref="Y2:AA2"/>
-    <mergeCell ref="G3:V3"/>
-    <mergeCell ref="W3:X3"/>
-    <mergeCell ref="Y3:AA3"/>
-    <mergeCell ref="W34:Z34"/>
-    <mergeCell ref="B51:G51"/>
-    <mergeCell ref="F54:H54"/>
-    <mergeCell ref="C35:E35"/>
-    <mergeCell ref="C36:E36"/>
-    <mergeCell ref="C44:AA44"/>
-    <mergeCell ref="N54:V54"/>
-    <mergeCell ref="W35:Z35"/>
-    <mergeCell ref="W36:Z36"/>
-    <mergeCell ref="C34:E34"/>
-    <mergeCell ref="W39:Z39"/>
-    <mergeCell ref="W37:Z37"/>
-    <mergeCell ref="W38:Z38"/>
+    <mergeCell ref="G21:J21"/>
+    <mergeCell ref="K19:N20"/>
+    <mergeCell ref="K21:N21"/>
+    <mergeCell ref="O21:R21"/>
+    <mergeCell ref="S19:V20"/>
+    <mergeCell ref="S21:V21"/>
+    <mergeCell ref="G19:J20"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="W25:Z25"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="W26:Z26"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="W27:Z27"/>
   </mergeCells>
-  <conditionalFormatting sqref="F53:G54">
+  <conditionalFormatting sqref="F46:G47">
     <cfRule type="cellIs" dxfId="2" priority="1" stopIfTrue="1" operator="equal">
       <formula>"J"</formula>
     </cfRule>
@@ -34428,7 +34078,7 @@
   </conditionalFormatting>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0" footer="0"/>
-  <pageSetup paperSize="9" scale="26" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="27" orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;LCódigo de documento:UPDI-PRG-V1-2024-040&amp;CCódigo de proceso: GASE-GPDI-3-6&amp;RREV. UPDI: 2024-jun-20</oddFooter>
   </headerFooter>
@@ -34456,84 +34106,84 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:13" ht="15" customHeight="1">
-      <c r="A2" s="129" t="s">
-        <v>70</v>
+      <c r="A2" s="183" t="s">
+        <v>65</v>
       </c>
-      <c r="B2" s="130"/>
-      <c r="C2" s="130"/>
-      <c r="D2" s="130"/>
-      <c r="E2" s="130"/>
-      <c r="F2" s="130"/>
-      <c r="G2" s="130"/>
-      <c r="H2" s="130"/>
-      <c r="I2" s="130"/>
-      <c r="J2" s="130"/>
-      <c r="K2" s="130"/>
+      <c r="B2" s="184"/>
+      <c r="C2" s="184"/>
+      <c r="D2" s="184"/>
+      <c r="E2" s="184"/>
+      <c r="F2" s="184"/>
+      <c r="G2" s="184"/>
+      <c r="H2" s="184"/>
+      <c r="I2" s="184"/>
+      <c r="J2" s="184"/>
+      <c r="K2" s="184"/>
     </row>
     <row r="3" spans="1:13" ht="15" customHeight="1">
-      <c r="A3" s="129"/>
-      <c r="B3" s="130"/>
-      <c r="C3" s="130"/>
-      <c r="D3" s="130"/>
-      <c r="E3" s="130"/>
-      <c r="F3" s="130"/>
-      <c r="G3" s="130"/>
-      <c r="H3" s="130"/>
-      <c r="I3" s="130"/>
-      <c r="J3" s="130"/>
-      <c r="K3" s="130"/>
+      <c r="A3" s="183"/>
+      <c r="B3" s="184"/>
+      <c r="C3" s="184"/>
+      <c r="D3" s="184"/>
+      <c r="E3" s="184"/>
+      <c r="F3" s="184"/>
+      <c r="G3" s="184"/>
+      <c r="H3" s="184"/>
+      <c r="I3" s="184"/>
+      <c r="J3" s="184"/>
+      <c r="K3" s="184"/>
     </row>
     <row r="4" spans="1:13" ht="15" customHeight="1">
-      <c r="A4" s="129"/>
-      <c r="B4" s="130"/>
-      <c r="C4" s="130"/>
-      <c r="D4" s="130"/>
-      <c r="E4" s="130"/>
-      <c r="F4" s="130"/>
-      <c r="G4" s="130"/>
-      <c r="H4" s="130"/>
-      <c r="I4" s="130"/>
-      <c r="J4" s="130"/>
-      <c r="K4" s="130"/>
+      <c r="A4" s="183"/>
+      <c r="B4" s="184"/>
+      <c r="C4" s="184"/>
+      <c r="D4" s="184"/>
+      <c r="E4" s="184"/>
+      <c r="F4" s="184"/>
+      <c r="G4" s="184"/>
+      <c r="H4" s="184"/>
+      <c r="I4" s="184"/>
+      <c r="J4" s="184"/>
+      <c r="K4" s="184"/>
     </row>
     <row r="5" spans="1:13" ht="15" customHeight="1">
-      <c r="A5" s="129"/>
-      <c r="B5" s="130"/>
-      <c r="C5" s="130"/>
-      <c r="D5" s="130"/>
-      <c r="E5" s="130"/>
-      <c r="F5" s="130"/>
-      <c r="G5" s="130"/>
-      <c r="H5" s="130"/>
-      <c r="I5" s="130"/>
-      <c r="J5" s="130"/>
-      <c r="K5" s="130"/>
+      <c r="A5" s="183"/>
+      <c r="B5" s="184"/>
+      <c r="C5" s="184"/>
+      <c r="D5" s="184"/>
+      <c r="E5" s="184"/>
+      <c r="F5" s="184"/>
+      <c r="G5" s="184"/>
+      <c r="H5" s="184"/>
+      <c r="I5" s="184"/>
+      <c r="J5" s="184"/>
+      <c r="K5" s="184"/>
     </row>
     <row r="6" spans="1:13" ht="15" customHeight="1">
-      <c r="A6" s="129"/>
-      <c r="B6" s="130"/>
-      <c r="C6" s="130"/>
-      <c r="D6" s="130"/>
-      <c r="E6" s="130"/>
-      <c r="F6" s="130"/>
-      <c r="G6" s="130"/>
-      <c r="H6" s="130"/>
-      <c r="I6" s="130"/>
-      <c r="J6" s="130"/>
-      <c r="K6" s="130"/>
+      <c r="A6" s="183"/>
+      <c r="B6" s="184"/>
+      <c r="C6" s="184"/>
+      <c r="D6" s="184"/>
+      <c r="E6" s="184"/>
+      <c r="F6" s="184"/>
+      <c r="G6" s="184"/>
+      <c r="H6" s="184"/>
+      <c r="I6" s="184"/>
+      <c r="J6" s="184"/>
+      <c r="K6" s="184"/>
     </row>
     <row r="7" spans="1:13" ht="15" customHeight="1">
-      <c r="A7" s="129"/>
-      <c r="B7" s="130"/>
-      <c r="C7" s="130"/>
-      <c r="D7" s="130"/>
-      <c r="E7" s="130"/>
-      <c r="F7" s="130"/>
-      <c r="G7" s="130"/>
-      <c r="H7" s="130"/>
-      <c r="I7" s="130"/>
-      <c r="J7" s="130"/>
-      <c r="K7" s="130"/>
+      <c r="A7" s="183"/>
+      <c r="B7" s="184"/>
+      <c r="C7" s="184"/>
+      <c r="D7" s="184"/>
+      <c r="E7" s="184"/>
+      <c r="F7" s="184"/>
+      <c r="G7" s="184"/>
+      <c r="H7" s="184"/>
+      <c r="I7" s="184"/>
+      <c r="J7" s="184"/>
+      <c r="K7" s="184"/>
     </row>
     <row r="8" spans="1:13" ht="15" customHeight="1">
       <c r="A8" s="58"/>
@@ -34563,15 +34213,15 @@
       <c r="B10" s="58"/>
       <c r="C10" s="58"/>
       <c r="D10" s="59" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E10" s="60">
         <v>1</v>
       </c>
       <c r="F10" s="77"/>
-      <c r="G10" s="126"/>
-      <c r="H10" s="128"/>
-      <c r="I10" s="128"/>
+      <c r="G10" s="180"/>
+      <c r="H10" s="182"/>
+      <c r="I10" s="182"/>
       <c r="J10" s="78"/>
       <c r="K10" s="78"/>
     </row>
@@ -34580,21 +34230,21 @@
       <c r="B11" s="58"/>
       <c r="C11" s="58"/>
       <c r="D11" s="59" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E11" s="61">
         <v>45644</v>
       </c>
       <c r="F11" s="77"/>
-      <c r="G11" s="127"/>
-      <c r="H11" s="127"/>
-      <c r="I11" s="127"/>
+      <c r="G11" s="181"/>
+      <c r="H11" s="181"/>
+      <c r="I11" s="181"/>
       <c r="J11" s="78"/>
       <c r="K11" s="78"/>
     </row>
     <row r="12" spans="1:13" ht="15" customHeight="1">
       <c r="A12" s="58" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B12" s="58"/>
       <c r="C12" s="58"/>
@@ -34620,543 +34270,543 @@
     </row>
     <row r="14" spans="1:13" ht="15" customHeight="1">
       <c r="A14" s="70" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" s="83" t="s">
         <v>33</v>
       </c>
-      <c r="B14" s="83" t="s">
+      <c r="C14" s="83" t="s">
         <v>34</v>
       </c>
-      <c r="C14" s="83" t="s">
+      <c r="D14" s="84" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="84" t="s">
+      <c r="E14" s="71" t="s">
         <v>36</v>
       </c>
-      <c r="E14" s="71" t="s">
+      <c r="F14" s="71" t="s">
         <v>37</v>
       </c>
-      <c r="F14" s="71" t="s">
+      <c r="G14" s="85" t="s">
         <v>38</v>
       </c>
-      <c r="G14" s="85" t="s">
-        <v>39</v>
-      </c>
       <c r="H14" s="82" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I14" s="82" t="s">
-        <v>96</v>
+        <v>71</v>
       </c>
       <c r="J14" s="86" t="s">
+        <v>66</v>
+      </c>
+      <c r="K14" s="86" t="s">
         <v>71</v>
       </c>
-      <c r="K14" s="86" t="s">
-        <v>96</v>
-      </c>
     </row>
     <row r="15" spans="1:13" ht="96.6" customHeight="1">
-      <c r="A15" s="131" t="s">
-        <v>40</v>
+      <c r="A15" s="185" t="s">
+        <v>39</v>
       </c>
       <c r="B15" s="87">
         <v>45644</v>
       </c>
       <c r="C15" s="68" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15" s="69" t="s">
         <v>41</v>
       </c>
-      <c r="D15" s="69" t="s">
-        <v>42</v>
-      </c>
       <c r="E15" s="88" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="F15" s="66" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="G15" s="75" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H15" s="75" t="s">
-        <v>98</v>
+        <v>73</v>
       </c>
       <c r="I15" s="75" t="s">
-        <v>97</v>
+        <v>72</v>
       </c>
       <c r="J15" s="75" t="s">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="K15" s="75" t="s">
-        <v>104</v>
+        <v>79</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="96.6" customHeight="1">
-      <c r="A16" s="131"/>
+      <c r="A16" s="185"/>
       <c r="B16" s="87">
         <v>45644</v>
       </c>
       <c r="C16" s="68" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D16" s="69" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E16" s="88"/>
       <c r="F16" s="66" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="G16" s="75" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H16" s="75" t="s">
-        <v>116</v>
+        <v>91</v>
       </c>
       <c r="I16" s="75" t="s">
-        <v>99</v>
+        <v>74</v>
       </c>
       <c r="J16" s="75" t="s">
-        <v>107</v>
+        <v>82</v>
       </c>
       <c r="K16" s="75" t="s">
-        <v>106</v>
+        <v>81</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="96.6" customHeight="1">
-      <c r="A17" s="131"/>
+      <c r="A17" s="185"/>
       <c r="B17" s="87">
         <v>45644</v>
       </c>
       <c r="C17" s="68" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D17" s="69" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E17" s="88"/>
       <c r="F17" s="66" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="G17" s="75" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H17" s="75" t="s">
-        <v>101</v>
+        <v>76</v>
       </c>
       <c r="I17" s="75" t="s">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="J17" s="75" t="s">
-        <v>109</v>
+        <v>84</v>
       </c>
       <c r="K17" s="75" t="s">
-        <v>108</v>
+        <v>83</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="96.6" customHeight="1">
-      <c r="A18" s="131"/>
+      <c r="A18" s="185"/>
       <c r="B18" s="87">
         <v>45644</v>
       </c>
       <c r="C18" s="68" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D18" s="69" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E18" s="88"/>
       <c r="F18" s="66" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="G18" s="75" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H18" s="75" t="s">
-        <v>103</v>
+        <v>78</v>
       </c>
       <c r="I18" s="75" t="s">
-        <v>102</v>
+        <v>77</v>
       </c>
       <c r="J18" s="75" t="s">
-        <v>111</v>
+        <v>86</v>
       </c>
       <c r="K18" s="75" t="s">
-        <v>110</v>
+        <v>85</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="96" customHeight="1">
-      <c r="A19" s="131"/>
+      <c r="A19" s="185"/>
       <c r="B19" s="87">
         <v>45644</v>
       </c>
       <c r="C19" s="68" t="s">
+        <v>40</v>
+      </c>
+      <c r="D19" s="69" t="s">
         <v>41</v>
       </c>
-      <c r="D19" s="69" t="s">
-        <v>42</v>
-      </c>
       <c r="E19" s="88" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="F19" s="66" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G19" s="75" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H19" s="76" t="s">
-        <v>113</v>
+        <v>88</v>
       </c>
       <c r="I19" s="76" t="s">
-        <v>112</v>
+        <v>87</v>
       </c>
       <c r="J19" s="76" t="s">
-        <v>115</v>
+        <v>90</v>
       </c>
       <c r="K19" s="76" t="s">
-        <v>114</v>
+        <v>89</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="96" customHeight="1">
-      <c r="A20" s="131"/>
+      <c r="A20" s="185"/>
       <c r="B20" s="87">
         <v>45644</v>
       </c>
       <c r="C20" s="68" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D20" s="69" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E20" s="88"/>
       <c r="F20" s="66" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G20" s="75" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H20" s="76" t="s">
-        <v>118</v>
+        <v>93</v>
       </c>
       <c r="I20" s="76" t="s">
-        <v>117</v>
+        <v>92</v>
       </c>
       <c r="J20" s="76" t="s">
-        <v>124</v>
+        <v>99</v>
       </c>
       <c r="K20" s="76" t="s">
-        <v>123</v>
+        <v>98</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="96" customHeight="1">
-      <c r="A21" s="131"/>
+      <c r="A21" s="185"/>
       <c r="B21" s="87">
         <v>45644</v>
       </c>
       <c r="C21" s="68" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D21" s="69" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E21" s="88"/>
       <c r="F21" s="66" t="s">
+        <v>44</v>
+      </c>
+      <c r="G21" s="75" t="s">
         <v>46</v>
       </c>
-      <c r="G21" s="75" t="s">
-        <v>48</v>
-      </c>
       <c r="H21" s="76" t="s">
-        <v>120</v>
+        <v>95</v>
       </c>
       <c r="I21" s="76" t="s">
-        <v>119</v>
+        <v>94</v>
       </c>
       <c r="J21" s="76" t="s">
-        <v>109</v>
+        <v>84</v>
       </c>
       <c r="K21" s="76" t="s">
-        <v>125</v>
+        <v>100</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="96" customHeight="1">
-      <c r="A22" s="131"/>
+      <c r="A22" s="185"/>
       <c r="B22" s="87">
         <v>45644</v>
       </c>
       <c r="C22" s="68" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D22" s="69" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E22" s="88"/>
       <c r="F22" s="66" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="G22" s="75" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H22" s="76" t="s">
-        <v>122</v>
+        <v>97</v>
       </c>
       <c r="I22" s="76" t="s">
-        <v>121</v>
+        <v>96</v>
       </c>
       <c r="J22" s="76" t="s">
-        <v>127</v>
+        <v>102</v>
       </c>
       <c r="K22" s="76" t="s">
-        <v>126</v>
+        <v>101</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="96.6" customHeight="1">
-      <c r="A23" s="131"/>
+      <c r="A23" s="185"/>
       <c r="B23" s="87">
         <v>45644</v>
       </c>
       <c r="C23" s="68" t="s">
+        <v>40</v>
+      </c>
+      <c r="D23" s="69" t="s">
         <v>41</v>
       </c>
-      <c r="D23" s="69" t="s">
-        <v>42</v>
-      </c>
       <c r="E23" s="88" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="F23" s="66" t="s">
+        <v>44</v>
+      </c>
+      <c r="G23" s="75" t="s">
         <v>46</v>
       </c>
-      <c r="G23" s="75" t="s">
-        <v>48</v>
-      </c>
       <c r="H23" s="76" t="s">
-        <v>129</v>
+        <v>104</v>
       </c>
       <c r="I23" s="76" t="s">
-        <v>128</v>
+        <v>103</v>
       </c>
       <c r="J23" s="76" t="s">
-        <v>131</v>
+        <v>106</v>
       </c>
       <c r="K23" s="76" t="s">
-        <v>130</v>
+        <v>105</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="96.6" customHeight="1">
-      <c r="A24" s="131"/>
+      <c r="A24" s="185"/>
       <c r="B24" s="87">
         <v>45644</v>
       </c>
       <c r="C24" s="68" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D24" s="69" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E24" s="88"/>
       <c r="F24" s="66" t="s">
+        <v>44</v>
+      </c>
+      <c r="G24" s="75" t="s">
         <v>46</v>
       </c>
-      <c r="G24" s="75" t="s">
-        <v>48</v>
-      </c>
       <c r="H24" s="76" t="s">
-        <v>133</v>
+        <v>108</v>
       </c>
       <c r="I24" s="76" t="s">
-        <v>132</v>
+        <v>107</v>
       </c>
       <c r="J24" s="76" t="s">
-        <v>139</v>
+        <v>114</v>
       </c>
       <c r="K24" s="76" t="s">
-        <v>138</v>
+        <v>113</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="96.6" customHeight="1">
-      <c r="A25" s="131"/>
+      <c r="A25" s="185"/>
       <c r="B25" s="87">
         <v>45644</v>
       </c>
       <c r="C25" s="68" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D25" s="69" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E25" s="88"/>
       <c r="F25" s="66" t="s">
+        <v>44</v>
+      </c>
+      <c r="G25" s="75" t="s">
         <v>46</v>
       </c>
-      <c r="G25" s="75" t="s">
-        <v>48</v>
-      </c>
       <c r="H25" s="76" t="s">
-        <v>135</v>
+        <v>110</v>
       </c>
       <c r="I25" s="76" t="s">
-        <v>134</v>
+        <v>109</v>
       </c>
       <c r="J25" s="76" t="s">
-        <v>141</v>
+        <v>116</v>
       </c>
       <c r="K25" s="76" t="s">
-        <v>140</v>
+        <v>115</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="96.6" customHeight="1">
-      <c r="A26" s="131"/>
+      <c r="A26" s="185"/>
       <c r="B26" s="87">
         <v>45644</v>
       </c>
       <c r="C26" s="68" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D26" s="69" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E26" s="88"/>
       <c r="F26" s="66" t="s">
+        <v>44</v>
+      </c>
+      <c r="G26" s="75" t="s">
         <v>46</v>
       </c>
-      <c r="G26" s="75" t="s">
-        <v>48</v>
-      </c>
       <c r="H26" s="76" t="s">
-        <v>137</v>
+        <v>112</v>
       </c>
       <c r="I26" s="76" t="s">
-        <v>136</v>
+        <v>111</v>
       </c>
       <c r="J26" s="76" t="s">
-        <v>143</v>
+        <v>118</v>
       </c>
       <c r="K26" s="76" t="s">
-        <v>142</v>
+        <v>117</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="99.6" customHeight="1">
-      <c r="A27" s="131"/>
+      <c r="A27" s="185"/>
       <c r="B27" s="87">
         <v>45644</v>
       </c>
       <c r="C27" s="68" t="s">
+        <v>40</v>
+      </c>
+      <c r="D27" s="69" t="s">
         <v>41</v>
       </c>
-      <c r="D27" s="69" t="s">
-        <v>42</v>
-      </c>
       <c r="E27" s="88" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="F27" s="66" t="s">
+        <v>44</v>
+      </c>
+      <c r="G27" s="75" t="s">
         <v>46</v>
       </c>
-      <c r="G27" s="75" t="s">
-        <v>48</v>
-      </c>
       <c r="H27" s="76" t="s">
-        <v>145</v>
+        <v>120</v>
       </c>
       <c r="I27" s="76" t="s">
-        <v>144</v>
+        <v>119</v>
       </c>
       <c r="J27" s="76" t="s">
-        <v>147</v>
+        <v>122</v>
       </c>
       <c r="K27" s="76" t="s">
-        <v>146</v>
+        <v>121</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="99.6" customHeight="1">
-      <c r="A28" s="131"/>
+      <c r="A28" s="185"/>
       <c r="B28" s="87">
         <v>45644</v>
       </c>
       <c r="C28" s="68" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D28" s="69" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E28" s="88"/>
       <c r="F28" s="66" t="s">
+        <v>44</v>
+      </c>
+      <c r="G28" s="75" t="s">
         <v>46</v>
       </c>
-      <c r="G28" s="75" t="s">
-        <v>48</v>
-      </c>
       <c r="H28" s="76" t="s">
-        <v>149</v>
+        <v>124</v>
       </c>
       <c r="I28" s="76" t="s">
-        <v>148</v>
+        <v>123</v>
       </c>
       <c r="J28" s="76" t="s">
-        <v>155</v>
+        <v>130</v>
       </c>
       <c r="K28" s="76" t="s">
-        <v>154</v>
+        <v>129</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="99.6" customHeight="1">
-      <c r="A29" s="131"/>
+      <c r="A29" s="185"/>
       <c r="B29" s="87">
         <v>45644</v>
       </c>
       <c r="C29" s="68" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D29" s="69" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E29" s="88"/>
       <c r="F29" s="66" t="s">
+        <v>44</v>
+      </c>
+      <c r="G29" s="75" t="s">
         <v>46</v>
       </c>
-      <c r="G29" s="75" t="s">
-        <v>48</v>
-      </c>
       <c r="H29" s="76" t="s">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="I29" s="76" t="s">
-        <v>150</v>
+        <v>125</v>
       </c>
       <c r="J29" s="76" t="s">
-        <v>157</v>
+        <v>132</v>
       </c>
       <c r="K29" s="76" t="s">
-        <v>156</v>
+        <v>131</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="99.6" customHeight="1">
-      <c r="A30" s="131"/>
+      <c r="A30" s="185"/>
       <c r="B30" s="87">
         <v>45644</v>
       </c>
       <c r="C30" s="68" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D30" s="69" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E30" s="88"/>
       <c r="F30" s="66" t="s">
+        <v>44</v>
+      </c>
+      <c r="G30" s="75" t="s">
         <v>46</v>
       </c>
-      <c r="G30" s="75" t="s">
-        <v>48</v>
-      </c>
       <c r="H30" s="76" t="s">
-        <v>153</v>
+        <v>128</v>
       </c>
       <c r="I30" s="76" t="s">
-        <v>152</v>
+        <v>127</v>
       </c>
       <c r="J30" s="76" t="s">
-        <v>159</v>
+        <v>134</v>
       </c>
       <c r="K30" s="76" t="s">
-        <v>158</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>
@@ -35172,15 +34822,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100EDB39E34F5A9B445B025C05B2A05D030" ma:contentTypeVersion="9" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="c21ef800502b5dc1190a9a0361733939">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f1f31ffb-9912-4459-99c8-b26e82094b51" xmlns:ns4="ce621958-37b1-43fe-a1f1-1aad67996a88" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="30daf50bb6192471b76b9808b4256f50" ns3:_="" ns4:_="">
     <xsd:import namespace="f1f31ffb-9912-4459-99c8-b26e82094b51"/>
@@ -35375,6 +35016,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -35384,14 +35034,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{96490F3C-DFF7-4107-BF06-5DD550949EBD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D01A9D5D-1824-48C2-8527-9D8749A8DDDB}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -35406,6 +35048,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{96490F3C-DFF7-4107-BF06-5DD550949EBD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
